--- a/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3EA252-5427-47B1-B37E-D19F07B2A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C6683A-71E7-4518-9752-8C4BB523AAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>TARA_X000000368</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>HQ_reads</t>
+  </si>
+  <si>
+    <t>DNA_CAZenzyme</t>
   </si>
 </sst>
 </file>
@@ -937,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -953,9 +956,10 @@
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -983,8 +987,11 @@
       <c r="I1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1004,19 +1011,22 @@
         <v>374584396</v>
       </c>
       <c r="G2">
-        <f>B2/F2</f>
+        <f t="shared" ref="G2:G33" si="0">B2/F2</f>
         <v>5.2904258184552615E-5</v>
       </c>
       <c r="H2">
-        <f>C2/F2</f>
+        <f t="shared" ref="H2:H33" si="1">C2/F2</f>
         <v>1.8618954951109441E-4</v>
       </c>
       <c r="I2">
-        <f>D2/F2</f>
+        <f t="shared" ref="I2:I33" si="2">D2/F2</f>
         <v>8.5891406332682368E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>2.5736257353364201E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1036,19 +1046,22 @@
         <v>314948276</v>
       </c>
       <c r="G3">
-        <f>B3/F3</f>
+        <f t="shared" si="0"/>
         <v>5.1133105575165302E-5</v>
       </c>
       <c r="H3">
-        <f>C3/F3</f>
+        <f t="shared" si="1"/>
         <v>2.1188298830754798E-4</v>
       </c>
       <c r="I3">
-        <f>D3/F3</f>
+        <f t="shared" si="2"/>
         <v>9.034084546037489E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>2.81504992048872E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1068,19 +1081,22 @@
         <v>425125871</v>
       </c>
       <c r="G4">
-        <f>B4/F4</f>
+        <f t="shared" si="0"/>
         <v>8.3579255459981396E-5</v>
       </c>
       <c r="H4">
-        <f>C4/F4</f>
+        <f t="shared" si="1"/>
         <v>1.4610834328757894E-4</v>
       </c>
       <c r="I4">
-        <f>D4/F4</f>
+        <f t="shared" si="2"/>
         <v>9.3672509437930911E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>2.55348104962431E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1100,19 +1116,22 @@
         <v>371335866</v>
       </c>
       <c r="G5">
-        <f>B5/F5</f>
+        <f t="shared" si="0"/>
         <v>3.3025142216893477E-5</v>
       </c>
       <c r="H5">
-        <f>C5/F5</f>
+        <f t="shared" si="1"/>
         <v>1.3987755385985043E-4</v>
       </c>
       <c r="I5">
-        <f>D5/F5</f>
+        <f t="shared" si="2"/>
         <v>6.350213969806973E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>1.7816731405269501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1132,19 +1151,22 @@
         <v>347981762</v>
       </c>
       <c r="G6">
-        <f>B6/F6</f>
+        <f t="shared" si="0"/>
         <v>2.0891702034017318E-4</v>
       </c>
       <c r="H6">
-        <f>C6/F6</f>
+        <f t="shared" si="1"/>
         <v>1.8430001697765326E-4</v>
       </c>
       <c r="I6">
-        <f>D6/F6</f>
+        <f t="shared" si="2"/>
         <v>7.397378169280263E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>1.9784193598601799E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1164,19 +1186,22 @@
         <v>226154770</v>
       </c>
       <c r="G7">
-        <f>B7/F7</f>
+        <f t="shared" si="0"/>
         <v>8.1446549608770136E-5</v>
       </c>
       <c r="H7">
-        <f>C7/F7</f>
+        <f t="shared" si="1"/>
         <v>1.8455228512232131E-4</v>
       </c>
       <c r="I7">
-        <f>D7/F7</f>
+        <f t="shared" si="2"/>
         <v>8.0945570078928691E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>2.2643489337512399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1196,19 +1221,22 @@
         <v>347841493</v>
       </c>
       <c r="G8">
-        <f>B8/F8</f>
+        <f t="shared" si="0"/>
         <v>6.6109388903225812E-5</v>
       </c>
       <c r="H8">
-        <f>C8/F8</f>
+        <f t="shared" si="1"/>
         <v>1.6566202686182238E-4</v>
       </c>
       <c r="I8">
-        <f>D8/F8</f>
+        <f t="shared" si="2"/>
         <v>6.9223345760829631E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>2.0027682550878799E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1228,19 +1256,22 @@
         <v>180239988</v>
       </c>
       <c r="G9">
-        <f>B9/F9</f>
+        <f t="shared" si="0"/>
         <v>6.4561703960005264E-4</v>
       </c>
       <c r="H9">
-        <f>C9/F9</f>
+        <f t="shared" si="1"/>
         <v>2.7111187855182226E-4</v>
       </c>
       <c r="I9">
-        <f>D9/F9</f>
+        <f t="shared" si="2"/>
         <v>1.0129056159078418E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>3.10811328999098E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1260,19 +1291,22 @@
         <v>155740903</v>
       </c>
       <c r="G10">
-        <f>B10/F10</f>
+        <f t="shared" si="0"/>
         <v>2.0216850286116869E-3</v>
       </c>
       <c r="H10">
-        <f>C10/F10</f>
+        <f t="shared" si="1"/>
         <v>3.188804026266099E-4</v>
       </c>
       <c r="I10">
-        <f>D10/F10</f>
+        <f t="shared" si="2"/>
         <v>8.5442136235546941E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>2.5629882786097902E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1292,19 +1326,22 @@
         <v>253992444</v>
       </c>
       <c r="G11">
-        <f>B11/F11</f>
+        <f t="shared" si="0"/>
         <v>4.4793511211011453E-5</v>
       </c>
       <c r="H11">
-        <f>C11/F11</f>
+        <f t="shared" si="1"/>
         <v>1.5834537841140305E-4</v>
       </c>
       <c r="I11">
-        <f>D11/F11</f>
+        <f t="shared" si="2"/>
         <v>7.4859253840503228E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>2.0846050493712999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1324,19 +1361,22 @@
         <v>386425592</v>
       </c>
       <c r="G12">
-        <f>B12/F12</f>
+        <f t="shared" si="0"/>
         <v>2.2935889664006906E-4</v>
       </c>
       <c r="H12">
-        <f>C12/F12</f>
+        <f t="shared" si="1"/>
         <v>1.6925089961026236E-4</v>
       </c>
       <c r="I12">
-        <f>D12/F12</f>
+        <f t="shared" si="2"/>
         <v>7.2020775482004567E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>2.08001625679884E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1356,19 +1396,22 @@
         <v>394236908</v>
       </c>
       <c r="G13">
-        <f>B13/F13</f>
+        <f t="shared" si="0"/>
         <v>1.0472394988694132E-3</v>
       </c>
       <c r="H13">
-        <f>C13/F13</f>
+        <f t="shared" si="1"/>
         <v>1.9520760967460789E-4</v>
       </c>
       <c r="I13">
-        <f>D13/F13</f>
+        <f t="shared" si="2"/>
         <v>5.9641013367850125E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>1.4398235497510301E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1388,19 +1431,22 @@
         <v>280087895</v>
       </c>
       <c r="G14">
-        <f>B14/F14</f>
+        <f t="shared" si="0"/>
         <v>2.1120545016905248E-5</v>
       </c>
       <c r="H14">
-        <f>C14/F14</f>
+        <f t="shared" si="1"/>
         <v>1.584475334453897E-4</v>
       </c>
       <c r="I14">
-        <f>D14/F14</f>
+        <f t="shared" si="2"/>
         <v>7.7298690861336943E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>2.0863275011290199E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1420,19 +1466,22 @@
         <v>132309700</v>
       </c>
       <c r="G15">
-        <f>B15/F15</f>
+        <f t="shared" si="0"/>
         <v>3.8438784698076632E-5</v>
       </c>
       <c r="H15">
-        <f>C15/F15</f>
+        <f t="shared" si="1"/>
         <v>1.5727365346398714E-4</v>
       </c>
       <c r="I15">
-        <f>D15/F15</f>
+        <f t="shared" si="2"/>
         <v>7.642563651480353E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>2.0864065457525501E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1452,19 +1501,22 @@
         <v>271699742</v>
       </c>
       <c r="G16">
-        <f>B16/F16</f>
+        <f t="shared" si="0"/>
         <v>5.4636513939866017E-5</v>
       </c>
       <c r="H16">
-        <f>C16/F16</f>
+        <f t="shared" si="1"/>
         <v>1.4085119270800631E-4</v>
       </c>
       <c r="I16">
-        <f>D16/F16</f>
+        <f t="shared" si="2"/>
         <v>7.0983022270625857E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>1.9491736482847001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1484,19 +1536,22 @@
         <v>311817516</v>
       </c>
       <c r="G17">
-        <f>B17/F17</f>
+        <f t="shared" si="0"/>
         <v>1.6865520508304831E-4</v>
       </c>
       <c r="H17">
-        <f>C17/F17</f>
+        <f t="shared" si="1"/>
         <v>1.5583159989310927E-4</v>
       </c>
       <c r="I17">
-        <f>D17/F17</f>
+        <f t="shared" si="2"/>
         <v>7.1130774057617087E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>1.9343958223979801E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1516,19 +1571,22 @@
         <v>295821463</v>
       </c>
       <c r="G18">
-        <f>B18/F18</f>
+        <f t="shared" si="0"/>
         <v>7.3486171572980142E-5</v>
       </c>
       <c r="H18">
-        <f>C18/F18</f>
+        <f t="shared" si="1"/>
         <v>1.5456271614644641E-4</v>
       </c>
       <c r="I18">
-        <f>D18/F18</f>
+        <f t="shared" si="2"/>
         <v>7.440429891117907E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>2.1590240253621801E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1548,19 +1606,22 @@
         <v>296031939</v>
       </c>
       <c r="G19">
-        <f>B19/F19</f>
+        <f t="shared" si="0"/>
         <v>3.7724302011313385E-5</v>
       </c>
       <c r="H19">
-        <f>C19/F19</f>
+        <f t="shared" si="1"/>
         <v>1.5081270097751007E-4</v>
       </c>
       <c r="I19">
-        <f>D19/F19</f>
+        <f t="shared" si="2"/>
         <v>6.8216843657899024E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>1.8597868452243801E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1580,19 +1641,22 @@
         <v>217040159</v>
       </c>
       <c r="G20">
-        <f>B20/F20</f>
+        <f t="shared" si="0"/>
         <v>9.4720815197176026E-5</v>
       </c>
       <c r="H20">
-        <f>C20/F20</f>
+        <f t="shared" si="1"/>
         <v>1.5391554286260173E-4</v>
       </c>
       <c r="I20">
-        <f>D20/F20</f>
+        <f t="shared" si="2"/>
         <v>7.7419943462364036E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>2.1072227982379999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1612,19 +1676,22 @@
         <v>393164825</v>
       </c>
       <c r="G21">
-        <f>B21/F21</f>
+        <f t="shared" si="0"/>
         <v>3.2064947124312812E-4</v>
       </c>
       <c r="H21">
-        <f>C21/F21</f>
+        <f t="shared" si="1"/>
         <v>1.5542525045345168E-4</v>
       </c>
       <c r="I21">
-        <f>D21/F21</f>
+        <f t="shared" si="2"/>
         <v>5.9466378711375313E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>1.49669395613433E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1644,19 +1711,22 @@
         <v>354661545</v>
       </c>
       <c r="G22">
-        <f>B22/F22</f>
+        <f t="shared" si="0"/>
         <v>1.428195062185022E-4</v>
       </c>
       <c r="H22">
-        <f>C22/F22</f>
+        <f t="shared" si="1"/>
         <v>1.3378307121950705E-4</v>
       </c>
       <c r="I22">
-        <f>D22/F22</f>
+        <f t="shared" si="2"/>
         <v>7.2133831561848917E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>1.8618671040685202E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1676,19 +1746,22 @@
         <v>371929687</v>
       </c>
       <c r="G23">
-        <f>B23/F23</f>
+        <f t="shared" si="0"/>
         <v>1.821032311627047E-4</v>
       </c>
       <c r="H23">
-        <f>C23/F23</f>
+        <f t="shared" si="1"/>
         <v>1.8193791854997956E-4</v>
       </c>
       <c r="I23">
-        <f>D23/F23</f>
+        <f t="shared" si="2"/>
         <v>7.12437170133023E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>1.98120910807792E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1708,19 +1781,22 @@
         <v>310834821</v>
       </c>
       <c r="G24">
-        <f>B24/F24</f>
+        <f t="shared" si="0"/>
         <v>6.8623726916293594E-5</v>
       </c>
       <c r="H24">
-        <f>C24/F24</f>
+        <f t="shared" si="1"/>
         <v>1.2213673408027829E-4</v>
       </c>
       <c r="I24">
-        <f>D24/F24</f>
+        <f t="shared" si="2"/>
         <v>6.1428848299447765E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>1.77459679980351E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1740,19 +1816,22 @@
         <v>351029466</v>
       </c>
       <c r="G25">
-        <f>B25/F25</f>
+        <f t="shared" si="0"/>
         <v>1.1056626314642857E-4</v>
       </c>
       <c r="H25">
-        <f>C25/F25</f>
+        <f t="shared" si="1"/>
         <v>1.5688176063712812E-4</v>
       </c>
       <c r="I25">
-        <f>D25/F25</f>
+        <f t="shared" si="2"/>
         <v>7.4140793219656378E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>1.9521516376903799E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1772,19 +1851,22 @@
         <v>369649573</v>
       </c>
       <c r="G26">
-        <f>B26/F26</f>
+        <f t="shared" si="0"/>
         <v>1.1647558592846338E-4</v>
       </c>
       <c r="H26">
-        <f>C26/F26</f>
+        <f t="shared" si="1"/>
         <v>1.3084763258996597E-4</v>
       </c>
       <c r="I26">
-        <f>D26/F26</f>
+        <f t="shared" si="2"/>
         <v>6.7219913878237602E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>1.8557744181900999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1804,19 +1886,22 @@
         <v>355804280</v>
       </c>
       <c r="G27">
-        <f>B27/F27</f>
+        <f t="shared" si="0"/>
         <v>9.3588366400500868E-5</v>
       </c>
       <c r="H27">
-        <f>C27/F27</f>
+        <f t="shared" si="1"/>
         <v>1.7538107236555081E-4</v>
       </c>
       <c r="I27">
-        <f>D27/F27</f>
+        <f t="shared" si="2"/>
         <v>7.6470549041977517E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>2.14245768735324E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1836,19 +1921,22 @@
         <v>367066636</v>
       </c>
       <c r="G28">
-        <f>B28/F28</f>
+        <f t="shared" si="0"/>
         <v>8.5913521874152307E-5</v>
       </c>
       <c r="H28">
-        <f>C28/F28</f>
+        <f t="shared" si="1"/>
         <v>1.9850857653966894E-4</v>
       </c>
       <c r="I28">
-        <f>D28/F28</f>
+        <f t="shared" si="2"/>
         <v>7.8706430154319162E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>2.1383498945623001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1868,19 +1956,22 @@
         <v>357543306</v>
       </c>
       <c r="G29">
-        <f>B29/F29</f>
+        <f t="shared" si="0"/>
         <v>1.2079357758010718E-4</v>
       </c>
       <c r="H29">
-        <f>C29/F29</f>
+        <f t="shared" si="1"/>
         <v>1.7391906191450388E-4</v>
       </c>
       <c r="I29">
-        <f>D29/F29</f>
+        <f t="shared" si="2"/>
         <v>7.1132312616707756E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>1.8547205930863699E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1900,19 +1991,22 @@
         <v>422880216</v>
       </c>
       <c r="G30">
-        <f>B30/F30</f>
+        <f t="shared" si="0"/>
         <v>6.7615069456485291E-5</v>
       </c>
       <c r="H30">
-        <f>C30/F30</f>
+        <f t="shared" si="1"/>
         <v>1.7026039590012221E-4</v>
       </c>
       <c r="I30">
-        <f>D30/F30</f>
+        <f t="shared" si="2"/>
         <v>8.2411753562318928E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>2.2306888108173901E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1932,19 +2026,22 @@
         <v>388219450</v>
       </c>
       <c r="G31">
-        <f>B31/F31</f>
+        <f t="shared" si="0"/>
         <v>2.139545419656372E-4</v>
       </c>
       <c r="H31">
-        <f>C31/F31</f>
+        <f t="shared" si="1"/>
         <v>1.7217939560548989E-4</v>
       </c>
       <c r="I31">
-        <f>D31/F31</f>
+        <f t="shared" si="2"/>
         <v>7.1746440821703035E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>1.9044622299234398E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1964,19 +2061,22 @@
         <v>404332442</v>
       </c>
       <c r="G32">
-        <f>B32/F32</f>
+        <f t="shared" si="0"/>
         <v>2.4330010907640625E-4</v>
       </c>
       <c r="H32">
-        <f>C32/F32</f>
+        <f t="shared" si="1"/>
         <v>1.3479841693354847E-4</v>
       </c>
       <c r="I32">
-        <f>D32/F32</f>
+        <f t="shared" si="2"/>
         <v>6.3941103886759592E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>1.79360875647104E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1996,19 +2096,22 @@
         <v>353519208</v>
       </c>
       <c r="G33">
-        <f>B33/F33</f>
+        <f t="shared" si="0"/>
         <v>3.9068732266539525E-3</v>
       </c>
       <c r="H33">
-        <f>C33/F33</f>
+        <f t="shared" si="1"/>
         <v>3.3042085620906063E-4</v>
       </c>
       <c r="I33">
-        <f>D33/F33</f>
+        <f t="shared" si="2"/>
         <v>6.9484396898175042E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>2.0388873574890901E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2028,19 +2131,22 @@
         <v>359789956</v>
       </c>
       <c r="G34">
-        <f>B34/F34</f>
+        <f t="shared" ref="G34:G65" si="3">B34/F34</f>
         <v>1.5237445337921579E-3</v>
       </c>
       <c r="H34">
-        <f>C34/F34</f>
+        <f t="shared" ref="H34:H65" si="4">C34/F34</f>
         <v>2.7529774774510106E-4</v>
       </c>
       <c r="I34">
-        <f>D34/F34</f>
+        <f t="shared" ref="I34:I65" si="5">D34/F34</f>
         <v>7.7902262100637137E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>1.9762142038627702E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2060,19 +2166,22 @@
         <v>574967451</v>
       </c>
       <c r="G35">
-        <f>B35/F35</f>
+        <f t="shared" si="3"/>
         <v>4.0970581327633101E-5</v>
       </c>
       <c r="H35">
-        <f>C35/F35</f>
+        <f t="shared" si="4"/>
         <v>1.6641633495773954E-4</v>
       </c>
       <c r="I35">
-        <f>D35/F35</f>
+        <f t="shared" si="5"/>
         <v>7.4993202529594488E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>2.15767509564244E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2092,19 +2201,22 @@
         <v>354436678</v>
       </c>
       <c r="G36">
-        <f>B36/F36</f>
+        <f t="shared" si="3"/>
         <v>2.0923027147792925E-4</v>
       </c>
       <c r="H36">
-        <f>C36/F36</f>
+        <f t="shared" si="4"/>
         <v>1.3372336796142525E-4</v>
       </c>
       <c r="I36">
-        <f>D36/F36</f>
+        <f t="shared" si="5"/>
         <v>6.0445805010751457E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>1.8828342627028101E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2124,19 +2236,22 @@
         <v>215982851</v>
       </c>
       <c r="G37">
-        <f>B37/F37</f>
+        <f t="shared" si="3"/>
         <v>1.162494008234964E-3</v>
       </c>
       <c r="H37">
-        <f>C37/F37</f>
+        <f t="shared" si="4"/>
         <v>1.9969251376657677E-4</v>
       </c>
       <c r="I37">
-        <f>D37/F37</f>
+        <f t="shared" si="5"/>
         <v>6.0212906639156736E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>1.4540329084722E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2156,19 +2271,22 @@
         <v>372821827</v>
       </c>
       <c r="G38">
-        <f>B38/F38</f>
+        <f t="shared" si="3"/>
         <v>2.5884699996858555E-4</v>
       </c>
       <c r="H38">
-        <f>C38/F38</f>
+        <f t="shared" si="4"/>
         <v>1.3353253679996825E-4</v>
       </c>
       <c r="I38">
-        <f>D38/F38</f>
+        <f t="shared" si="5"/>
         <v>4.9079965475981374E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>1.29533520923539E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2188,19 +2306,22 @@
         <v>297613242</v>
       </c>
       <c r="G39">
-        <f>B39/F39</f>
+        <f t="shared" si="3"/>
         <v>4.2451784828229181E-4</v>
       </c>
       <c r="H39">
-        <f>C39/F39</f>
+        <f t="shared" si="4"/>
         <v>1.7145809231220599E-4</v>
       </c>
       <c r="I39">
-        <f>D39/F39</f>
+        <f t="shared" si="5"/>
         <v>6.6282282042454616E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>1.75879362790958E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2220,19 +2341,22 @@
         <v>342978924</v>
       </c>
       <c r="G40">
-        <f>B40/F40</f>
+        <f t="shared" si="3"/>
         <v>5.7004585672809161E-3</v>
       </c>
       <c r="H40">
-        <f>C40/F40</f>
+        <f t="shared" si="4"/>
         <v>5.3365387142249008E-4</v>
       </c>
       <c r="I40">
-        <f>D40/F40</f>
+        <f t="shared" si="5"/>
         <v>9.9749773600949013E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>2.5814482862560401E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2252,19 +2376,22 @@
         <v>216710980</v>
       </c>
       <c r="G41">
-        <f>B41/F41</f>
+        <f t="shared" si="3"/>
         <v>2.4589033510530756E-4</v>
       </c>
       <c r="H41">
-        <f>C41/F41</f>
+        <f t="shared" si="4"/>
         <v>9.9687503308727591E-5</v>
       </c>
       <c r="I41">
-        <f>D41/F41</f>
+        <f t="shared" si="5"/>
         <v>4.0305044222537778E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>1.1666275279619101E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2284,19 +2411,22 @@
         <v>344191636</v>
       </c>
       <c r="G42">
-        <f>B42/F42</f>
+        <f t="shared" si="3"/>
         <v>7.5609901164956834E-4</v>
       </c>
       <c r="H42">
-        <f>C42/F42</f>
+        <f t="shared" si="4"/>
         <v>2.0729319752188575E-4</v>
       </c>
       <c r="I42">
-        <f>D42/F42</f>
+        <f t="shared" si="5"/>
         <v>6.3778488318196967E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>1.52385371840597E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2316,19 +2446,22 @@
         <v>239868614</v>
       </c>
       <c r="G43">
-        <f>B43/F43</f>
+        <f t="shared" si="3"/>
         <v>3.8572119518457716E-4</v>
       </c>
       <c r="H43">
-        <f>C43/F43</f>
+        <f t="shared" si="4"/>
         <v>1.9076444554214209E-4</v>
       </c>
       <c r="I43">
-        <f>D43/F43</f>
+        <f t="shared" si="5"/>
         <v>6.5279331140346277E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>2.1459441849032399E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2348,19 +2481,22 @@
         <v>221316099</v>
       </c>
       <c r="G44">
-        <f>B44/F44</f>
+        <f t="shared" si="3"/>
         <v>4.7180268603319272E-4</v>
       </c>
       <c r="H44">
-        <f>C44/F44</f>
+        <f t="shared" si="4"/>
         <v>1.8212123325701897E-4</v>
       </c>
       <c r="I44">
-        <f>D44/F44</f>
+        <f t="shared" si="5"/>
         <v>6.4674322518638383E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>2.13882714739764E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2380,19 +2516,22 @@
         <v>147953808</v>
       </c>
       <c r="G45">
-        <f>B45/F45</f>
+        <f t="shared" si="3"/>
         <v>3.4224052764687541E-4</v>
       </c>
       <c r="H45">
-        <f>C45/F45</f>
+        <f t="shared" si="4"/>
         <v>1.9010876702998684E-4</v>
       </c>
       <c r="I45">
-        <f>D45/F45</f>
+        <f t="shared" si="5"/>
         <v>6.3496593461945571E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>1.8897886423128601E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2412,19 +2551,22 @@
         <v>252526354</v>
       </c>
       <c r="G46">
-        <f>B46/F46</f>
+        <f t="shared" si="3"/>
         <v>1.6359781181285776E-3</v>
       </c>
       <c r="H46">
-        <f>C46/F46</f>
+        <f t="shared" si="4"/>
         <v>2.26772479201035E-4</v>
       </c>
       <c r="I46">
-        <f>D46/F46</f>
+        <f t="shared" si="5"/>
         <v>6.5915372347074321E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>1.7007339964915099E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2444,19 +2586,22 @@
         <v>388975984</v>
       </c>
       <c r="G47">
-        <f>B47/F47</f>
+        <f t="shared" si="3"/>
         <v>3.1502570097695029E-4</v>
       </c>
       <c r="H47">
-        <f>C47/F47</f>
+        <f t="shared" si="4"/>
         <v>9.4033496948454527E-5</v>
       </c>
       <c r="I47">
-        <f>D47/F47</f>
+        <f t="shared" si="5"/>
         <v>3.9512856922619168E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>1.0205429718396899E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2476,19 +2621,22 @@
         <v>366259362</v>
       </c>
       <c r="G48">
-        <f>B48/F48</f>
+        <f t="shared" si="3"/>
         <v>8.1129977619959106E-4</v>
       </c>
       <c r="H48">
-        <f>C48/F48</f>
+        <f t="shared" si="4"/>
         <v>1.3852270749438919E-4</v>
       </c>
       <c r="I48">
-        <f>D48/F48</f>
+        <f t="shared" si="5"/>
         <v>4.2900326511959852E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>1.1845372892374501E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2508,19 +2656,22 @@
         <v>398525486</v>
       </c>
       <c r="G49">
-        <f>B49/F49</f>
+        <f t="shared" si="3"/>
         <v>1.4773998023699794E-4</v>
       </c>
       <c r="H49">
-        <f>C49/F49</f>
+        <f t="shared" si="4"/>
         <v>1.3224515868402479E-4</v>
       </c>
       <c r="I49">
-        <f>D49/F49</f>
+        <f t="shared" si="5"/>
         <v>5.9880823213329199E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>1.6398034800946499E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2540,19 +2691,22 @@
         <v>395736688</v>
       </c>
       <c r="G50">
-        <f>B50/F50</f>
+        <f t="shared" si="3"/>
         <v>2.0009323102801425E-4</v>
       </c>
       <c r="H50">
-        <f>C50/F50</f>
+        <f t="shared" si="4"/>
         <v>1.5660653143541344E-4</v>
       </c>
       <c r="I50">
-        <f>D50/F50</f>
+        <f t="shared" si="5"/>
         <v>6.2972464466677655E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>1.7628474371058099E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2572,19 +2726,22 @@
         <v>341481107</v>
       </c>
       <c r="G51">
-        <f>B51/F51</f>
+        <f t="shared" si="3"/>
         <v>7.9785146195085981E-5</v>
       </c>
       <c r="H51">
-        <f>C51/F51</f>
+        <f t="shared" si="4"/>
         <v>1.6441802990142584E-4</v>
       </c>
       <c r="I51">
-        <f>D51/F51</f>
+        <f t="shared" si="5"/>
         <v>7.4830253228136577E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>1.98323171625743E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -2604,19 +2761,22 @@
         <v>337657879</v>
       </c>
       <c r="G52">
-        <f>B52/F52</f>
+        <f t="shared" si="3"/>
         <v>9.1563862143458232E-5</v>
       </c>
       <c r="H52">
-        <f>C52/F52</f>
+        <f t="shared" si="4"/>
         <v>1.7003272437760025E-4</v>
       </c>
       <c r="I52">
-        <f>D52/F52</f>
+        <f t="shared" si="5"/>
         <v>7.5561732602506815E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>2.0842690533196599E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -2636,19 +2796,22 @@
         <v>361874453</v>
       </c>
       <c r="G53">
-        <f>B53/F53</f>
+        <f t="shared" si="3"/>
         <v>5.4281469215343306E-4</v>
       </c>
       <c r="H53">
-        <f>C53/F53</f>
+        <f t="shared" si="4"/>
         <v>2.5717419105256731E-4</v>
       </c>
       <c r="I53">
-        <f>D53/F53</f>
+        <f t="shared" si="5"/>
         <v>6.4090369335270811E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>1.6067541909891899E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2668,19 +2831,22 @@
         <v>284445761</v>
       </c>
       <c r="G54">
-        <f>B54/F54</f>
+        <f t="shared" si="3"/>
         <v>2.6851793281058883E-4</v>
       </c>
       <c r="H54">
-        <f>C54/F54</f>
+        <f t="shared" si="4"/>
         <v>1.6337452568459721E-4</v>
       </c>
       <c r="I54">
-        <f>D54/F54</f>
+        <f t="shared" si="5"/>
         <v>7.5822141943982773E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>2.1683046074547199E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2700,19 +2866,22 @@
         <v>278182539</v>
       </c>
       <c r="G55">
-        <f>B55/F55</f>
+        <f t="shared" si="3"/>
         <v>9.3428658821502811E-4</v>
       </c>
       <c r="H55">
-        <f>C55/F55</f>
+        <f t="shared" si="4"/>
         <v>1.8579505441851474E-4</v>
       </c>
       <c r="I55">
-        <f>D55/F55</f>
+        <f t="shared" si="5"/>
         <v>7.868482677582795E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>2.1454274089577698E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2732,19 +2901,22 @@
         <v>572835473</v>
       </c>
       <c r="G56">
-        <f>B56/F56</f>
+        <f t="shared" si="3"/>
         <v>1.7948022389411978E-4</v>
       </c>
       <c r="H56">
-        <f>C56/F56</f>
+        <f t="shared" si="4"/>
         <v>2.3348605656292346E-4</v>
       </c>
       <c r="I56">
-        <f>D56/F56</f>
+        <f t="shared" si="5"/>
         <v>8.3354506574607329E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>2.4377341292229501E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -2764,19 +2936,22 @@
         <v>351412096</v>
       </c>
       <c r="G57">
-        <f>B57/F57</f>
+        <f t="shared" si="3"/>
         <v>2.8634122901431371E-4</v>
       </c>
       <c r="H57">
-        <f>C57/F57</f>
+        <f t="shared" si="4"/>
         <v>2.310318452671686E-4</v>
       </c>
       <c r="I57">
-        <f>D57/F57</f>
+        <f t="shared" si="5"/>
         <v>8.8210251525012665E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>2.45011052210936E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -2796,19 +2971,22 @@
         <v>368812914</v>
       </c>
       <c r="G58">
-        <f>B58/F58</f>
+        <f t="shared" si="3"/>
         <v>7.5450731450810041E-4</v>
       </c>
       <c r="H58">
-        <f>C58/F58</f>
+        <f t="shared" si="4"/>
         <v>2.4735812065486786E-4</v>
       </c>
       <c r="I58">
-        <f>D58/F58</f>
+        <f t="shared" si="5"/>
         <v>7.076003386708986E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>1.7374261295683601E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -2828,19 +3006,22 @@
         <v>305178642</v>
       </c>
       <c r="G59">
-        <f>B59/F59</f>
+        <f t="shared" si="3"/>
         <v>1.872557785144925E-4</v>
       </c>
       <c r="H59">
-        <f>C59/F59</f>
+        <f t="shared" si="4"/>
         <v>1.4114644131004881E-4</v>
       </c>
       <c r="I59">
-        <f>D59/F59</f>
+        <f t="shared" si="5"/>
         <v>6.2628047382017977E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>1.9911433434783899E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -2860,19 +3041,22 @@
         <v>345426075</v>
       </c>
       <c r="G60">
-        <f>B60/F60</f>
+        <f t="shared" si="3"/>
         <v>6.1801363508725855E-4</v>
       </c>
       <c r="H60">
-        <f>C60/F60</f>
+        <f t="shared" si="4"/>
         <v>1.894776757570806E-4</v>
       </c>
       <c r="I60">
-        <f>D60/F60</f>
+        <f t="shared" si="5"/>
         <v>7.5816020930022723E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>1.9270460406322E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -2892,19 +3076,22 @@
         <v>283044306</v>
       </c>
       <c r="G61">
-        <f>B61/F61</f>
+        <f t="shared" si="3"/>
         <v>9.9568857578949833E-4</v>
       </c>
       <c r="H61">
-        <f>C61/F61</f>
+        <f t="shared" si="4"/>
         <v>2.8394310664911065E-4</v>
       </c>
       <c r="I61">
-        <f>D61/F61</f>
+        <f t="shared" si="5"/>
         <v>7.9897472577411966E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>2.2428586616458999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2924,19 +3111,22 @@
         <v>402876939</v>
       </c>
       <c r="G62">
-        <f>B62/F62</f>
+        <f t="shared" si="3"/>
         <v>8.7162791823215528E-4</v>
       </c>
       <c r="H62">
-        <f>C62/F62</f>
+        <f t="shared" si="4"/>
         <v>1.9624624813408272E-4</v>
       </c>
       <c r="I62">
-        <f>D62/F62</f>
+        <f t="shared" si="5"/>
         <v>5.9387014560140661E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62">
+        <v>1.3769109524591301E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2956,19 +3146,22 @@
         <v>393423759</v>
       </c>
       <c r="G63">
-        <f>B63/F63</f>
+        <f t="shared" si="3"/>
         <v>1.7629921056485764E-3</v>
       </c>
       <c r="H63">
-        <f>C63/F63</f>
+        <f t="shared" si="4"/>
         <v>2.7371475084293778E-4</v>
       </c>
       <c r="I63">
-        <f>D63/F63</f>
+        <f t="shared" si="5"/>
         <v>6.5350907727587688E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <v>1.45688424392653E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2988,19 +3181,22 @@
         <v>385066279</v>
       </c>
       <c r="G64">
-        <f>B64/F64</f>
+        <f t="shared" si="3"/>
         <v>5.4837641397465756E-4</v>
       </c>
       <c r="H64">
-        <f>C64/F64</f>
+        <f t="shared" si="4"/>
         <v>2.0168055653522313E-4</v>
       </c>
       <c r="I64">
-        <f>D64/F64</f>
+        <f t="shared" si="5"/>
         <v>8.1511592182210539E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64">
+        <v>2.4229559182244301E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3020,19 +3216,22 @@
         <v>240625766</v>
       </c>
       <c r="G65">
-        <f>B65/F65</f>
+        <f t="shared" si="3"/>
         <v>4.6455504317208078E-4</v>
       </c>
       <c r="H65">
-        <f>C65/F65</f>
+        <f t="shared" si="4"/>
         <v>1.8264847981972181E-4</v>
       </c>
       <c r="I65">
-        <f>D65/F65</f>
+        <f t="shared" si="5"/>
         <v>7.1215773402502538E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <v>2.22349753983738E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3052,19 +3251,22 @@
         <v>385331682</v>
       </c>
       <c r="G66">
-        <f>B66/F66</f>
+        <f t="shared" ref="G66:G97" si="6">B66/F66</f>
         <v>6.4209605519315429E-4</v>
       </c>
       <c r="H66">
-        <f>C66/F66</f>
+        <f t="shared" ref="H66:H97" si="7">C66/F66</f>
         <v>1.1800971592337455E-4</v>
       </c>
       <c r="I66">
-        <f>D66/F66</f>
+        <f t="shared" ref="I66:I97" si="8">D66/F66</f>
         <v>6.5432735234911468E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66">
+        <v>1.8798523543458699E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3084,19 +3286,22 @@
         <v>351516889</v>
       </c>
       <c r="G67">
-        <f>B67/F67</f>
+        <f t="shared" si="6"/>
         <v>1.1179701163272924E-4</v>
       </c>
       <c r="H67">
-        <f>C67/F67</f>
+        <f t="shared" si="7"/>
         <v>1.650640316129445E-4</v>
       </c>
       <c r="I67">
-        <f>D67/F67</f>
+        <f t="shared" si="8"/>
         <v>7.4379374918497011E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67">
+        <v>2.1426401766426999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3116,19 +3321,22 @@
         <v>363905524</v>
       </c>
       <c r="G68">
-        <f>B68/F68</f>
+        <f t="shared" si="6"/>
         <v>5.4939372409295442E-5</v>
       </c>
       <c r="H68">
-        <f>C68/F68</f>
+        <f t="shared" si="7"/>
         <v>1.4938697453439483E-4</v>
       </c>
       <c r="I68">
-        <f>D68/F68</f>
+        <f t="shared" si="8"/>
         <v>6.3568024630080919E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68">
+        <v>1.7523318177235198E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3148,19 +3356,22 @@
         <v>354624236</v>
       </c>
       <c r="G69">
-        <f>B69/F69</f>
+        <f t="shared" si="6"/>
         <v>1.2054437246952236E-3</v>
       </c>
       <c r="H69">
-        <f>C69/F69</f>
+        <f t="shared" si="7"/>
         <v>1.8915609834402292E-4</v>
       </c>
       <c r="I69">
-        <f>D69/F69</f>
+        <f t="shared" si="8"/>
         <v>5.811264397921974E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69">
+        <v>1.4873174718330599E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3180,19 +3391,22 @@
         <v>309852319</v>
       </c>
       <c r="G70">
-        <f>B70/F70</f>
+        <f t="shared" si="6"/>
         <v>1.0209444224640675E-4</v>
       </c>
       <c r="H70">
-        <f>C70/F70</f>
+        <f t="shared" si="7"/>
         <v>1.4439876747852936E-4</v>
       </c>
       <c r="I70">
-        <f>D70/F70</f>
+        <f t="shared" si="8"/>
         <v>7.1476649656243493E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70">
+        <v>1.93177947973339E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -3212,19 +3426,22 @@
         <v>318046581</v>
       </c>
       <c r="G71">
-        <f>B71/F71</f>
+        <f t="shared" si="6"/>
         <v>3.8954871501299363E-5</v>
       </c>
       <c r="H71">
-        <f>C71/F71</f>
+        <f t="shared" si="7"/>
         <v>1.3478642952913553E-4</v>
       </c>
       <c r="I71">
-        <f>D71/F71</f>
+        <f t="shared" si="8"/>
         <v>7.2304337792349358E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <v>1.97517677406568E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3244,19 +3461,22 @@
         <v>387758814</v>
       </c>
       <c r="G72">
-        <f>B72/F72</f>
+        <f t="shared" si="6"/>
         <v>2.7886323939765558E-4</v>
       </c>
       <c r="H72">
-        <f>C72/F72</f>
+        <f t="shared" si="7"/>
         <v>1.4324472631282135E-4</v>
       </c>
       <c r="I72">
-        <f>D72/F72</f>
+        <f t="shared" si="8"/>
         <v>6.684254216875983E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72">
+        <v>1.74992060579129E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3276,19 +3496,22 @@
         <v>341004970</v>
       </c>
       <c r="G73">
-        <f>B73/F73</f>
+        <f t="shared" si="6"/>
         <v>7.8640387758800118E-5</v>
       </c>
       <c r="H73">
-        <f>C73/F73</f>
+        <f t="shared" si="7"/>
         <v>1.6835727271762491E-4</v>
       </c>
       <c r="I73">
-        <f>D73/F73</f>
+        <f t="shared" si="8"/>
         <v>7.9137971394289356E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73">
+        <v>2.3090785323126702E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -3308,19 +3531,22 @@
         <v>317708836</v>
       </c>
       <c r="G74">
-        <f>B74/F74</f>
+        <f t="shared" si="6"/>
         <v>3.2007329782014938E-4</v>
       </c>
       <c r="H74">
-        <f>C74/F74</f>
+        <f t="shared" si="7"/>
         <v>1.6229911040977155E-4</v>
       </c>
       <c r="I74">
-        <f>D74/F74</f>
+        <f t="shared" si="8"/>
         <v>7.2078968234042451E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74">
+        <v>2.0655241922009401E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -3340,19 +3566,22 @@
         <v>350388824</v>
       </c>
       <c r="G75">
-        <f>B75/F75</f>
+        <f t="shared" si="6"/>
         <v>1.6828641153548009E-3</v>
       </c>
       <c r="H75">
-        <f>C75/F75</f>
+        <f t="shared" si="7"/>
         <v>3.6651907058585004E-4</v>
       </c>
       <c r="I75">
-        <f>D75/F75</f>
+        <f t="shared" si="8"/>
         <v>7.4267001982464484E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75">
+        <v>1.79993222756787E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -3372,19 +3601,22 @@
         <v>355229985</v>
       </c>
       <c r="G76">
-        <f>B76/F76</f>
+        <f t="shared" si="6"/>
         <v>1.3121051178640339E-4</v>
       </c>
       <c r="H76">
-        <f>C76/F76</f>
+        <f t="shared" si="7"/>
         <v>1.3753113176768483E-4</v>
       </c>
       <c r="I76">
-        <f>D76/F76</f>
+        <f t="shared" si="8"/>
         <v>6.3323873705614687E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76">
+        <v>1.65987717138169E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -3404,19 +3636,22 @@
         <v>360151130</v>
       </c>
       <c r="G77">
-        <f>B77/F77</f>
+        <f t="shared" si="6"/>
         <v>2.4175028696784458E-4</v>
       </c>
       <c r="H77">
-        <f>C77/F77</f>
+        <f t="shared" si="7"/>
         <v>1.4996362896467798E-4</v>
       </c>
       <c r="I77">
-        <f>D77/F77</f>
+        <f t="shared" si="8"/>
         <v>5.8867153096530617E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77">
+        <v>1.6142187528967199E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -3436,19 +3671,22 @@
         <v>279762247</v>
       </c>
       <c r="G78">
-        <f>B78/F78</f>
+        <f t="shared" si="6"/>
         <v>1.6563959980367866E-3</v>
       </c>
       <c r="H78">
-        <f>C78/F78</f>
+        <f t="shared" si="7"/>
         <v>2.3263726753024863E-4</v>
       </c>
       <c r="I78">
-        <f>D78/F78</f>
+        <f t="shared" si="8"/>
         <v>7.122191291551787E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78">
+        <v>1.9020838920485401E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3468,19 +3706,22 @@
         <v>367256827</v>
       </c>
       <c r="G79">
-        <f>B79/F79</f>
+        <f t="shared" si="6"/>
         <v>1.1028135328769069E-3</v>
       </c>
       <c r="H79">
-        <f>C79/F79</f>
+        <f t="shared" si="7"/>
         <v>2.9867495625164511E-4</v>
       </c>
       <c r="I79">
-        <f>D79/F79</f>
+        <f t="shared" si="8"/>
         <v>7.3075484095561274E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79">
+        <v>1.8110323823511999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3500,19 +3741,22 @@
         <v>345650351</v>
       </c>
       <c r="G80">
-        <f>B80/F80</f>
+        <f t="shared" si="6"/>
         <v>1.8196071616541653E-3</v>
       </c>
       <c r="H80">
-        <f>C80/F80</f>
+        <f t="shared" si="7"/>
         <v>4.2575739478617513E-4</v>
       </c>
       <c r="I80">
-        <f>D80/F80</f>
+        <f t="shared" si="8"/>
         <v>7.9881329845367353E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80">
+        <v>2.24241528240323E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3532,19 +3776,22 @@
         <v>354642203</v>
       </c>
       <c r="G81">
-        <f>B81/F81</f>
+        <f t="shared" si="6"/>
         <v>4.2182428064044595E-4</v>
       </c>
       <c r="H81">
-        <f>C81/F81</f>
+        <f t="shared" si="7"/>
         <v>1.7355827713475799E-4</v>
       </c>
       <c r="I81">
-        <f>D81/F81</f>
+        <f t="shared" si="8"/>
         <v>8.6219876925924411E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81">
+        <v>2.5426372195669199E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -3564,19 +3811,22 @@
         <v>315554996</v>
       </c>
       <c r="G82">
-        <f>B82/F82</f>
+        <f t="shared" si="6"/>
         <v>1.5737261835373666E-3</v>
       </c>
       <c r="H82">
-        <f>C82/F82</f>
+        <f t="shared" si="7"/>
         <v>2.4285941113276466E-4</v>
       </c>
       <c r="I82">
-        <f>D82/F82</f>
+        <f t="shared" si="8"/>
         <v>8.6649469726039138E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82">
+        <v>2.3153906655481098E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -3596,19 +3846,22 @@
         <v>336783339</v>
       </c>
       <c r="G83">
-        <f>B83/F83</f>
+        <f t="shared" si="6"/>
         <v>1.4546052193513054E-4</v>
       </c>
       <c r="H83">
-        <f>C83/F83</f>
+        <f t="shared" si="7"/>
         <v>1.4301073012325618E-4</v>
       </c>
       <c r="I83">
-        <f>D83/F83</f>
+        <f t="shared" si="8"/>
         <v>7.6871154683366919E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83">
+        <v>2.12689546431515E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -3628,19 +3881,22 @@
         <v>389577142</v>
       </c>
       <c r="G84">
-        <f>B84/F84</f>
+        <f t="shared" si="6"/>
         <v>7.5119454993773213E-4</v>
       </c>
       <c r="H84">
-        <f>C84/F84</f>
+        <f t="shared" si="7"/>
         <v>1.7038729509019911E-4</v>
       </c>
       <c r="I84">
-        <f>D84/F84</f>
+        <f t="shared" si="8"/>
         <v>5.5503362836097046E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84">
+        <v>1.28484687968532E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -3660,19 +3916,22 @@
         <v>230668318</v>
       </c>
       <c r="G85">
-        <f>B85/F85</f>
+        <f t="shared" si="6"/>
         <v>7.4154893542981924E-5</v>
       </c>
       <c r="H85">
-        <f>C85/F85</f>
+        <f t="shared" si="7"/>
         <v>1.2321096018143724E-4</v>
       </c>
       <c r="I85">
-        <f>D85/F85</f>
+        <f t="shared" si="8"/>
         <v>6.620199886323141E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85">
+        <v>1.7404686734587799E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -3692,19 +3951,22 @@
         <v>229203258</v>
       </c>
       <c r="G86">
-        <f>B86/F86</f>
+        <f t="shared" si="6"/>
         <v>6.8285203795741419E-5</v>
       </c>
       <c r="H86">
-        <f>C86/F86</f>
+        <f t="shared" si="7"/>
         <v>1.5136260437716205E-4</v>
       </c>
       <c r="I86">
-        <f>D86/F86</f>
+        <f t="shared" si="8"/>
         <v>6.32566537877376E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86">
+        <v>1.7413792210147602E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -3724,19 +3986,22 @@
         <v>418953169</v>
       </c>
       <c r="G87">
-        <f>B87/F87</f>
+        <f t="shared" si="6"/>
         <v>5.6607944581022135E-4</v>
       </c>
       <c r="H87">
-        <f>C87/F87</f>
+        <f t="shared" si="7"/>
         <v>2.1657966546716992E-4</v>
       </c>
       <c r="I87">
-        <f>D87/F87</f>
+        <f t="shared" si="8"/>
         <v>9.4411854161405573E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87">
+        <v>2.6103481371628601E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -3756,19 +4021,22 @@
         <v>304717891</v>
       </c>
       <c r="G88">
-        <f>B88/F88</f>
+        <f t="shared" si="6"/>
         <v>1.5412170027289502E-3</v>
       </c>
       <c r="H88">
-        <f>C88/F88</f>
+        <f t="shared" si="7"/>
         <v>3.8456311834294957E-4</v>
       </c>
       <c r="I88">
-        <f>D88/F88</f>
+        <f t="shared" si="8"/>
         <v>1.0697317690953006E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88">
+        <v>2.7878291460513901E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -3788,19 +4056,22 @@
         <v>258327423</v>
       </c>
       <c r="G89">
-        <f>B89/F89</f>
+        <f t="shared" si="6"/>
         <v>9.2041091573802066E-4</v>
       </c>
       <c r="H89">
-        <f>C89/F89</f>
+        <f t="shared" si="7"/>
         <v>3.657843233700237E-4</v>
       </c>
       <c r="I89">
-        <f>D89/F89</f>
+        <f t="shared" si="8"/>
         <v>9.5273924218675383E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89">
+        <v>2.4742980668082899E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3820,19 +4091,22 @@
         <v>343859596</v>
       </c>
       <c r="G90">
-        <f>B90/F90</f>
+        <f t="shared" si="6"/>
         <v>7.4419915535868313E-4</v>
       </c>
       <c r="H90">
-        <f>C90/F90</f>
+        <f t="shared" si="7"/>
         <v>2.4114077465062339E-4</v>
       </c>
       <c r="I90">
-        <f>D90/F90</f>
+        <f t="shared" si="8"/>
         <v>6.7459382583843035E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90">
+        <v>1.7843417529930398E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -3852,19 +4126,22 @@
         <v>462240205</v>
       </c>
       <c r="G91">
-        <f>B91/F91</f>
+        <f t="shared" si="6"/>
         <v>1.4904633829083172E-4</v>
       </c>
       <c r="H91">
-        <f>C91/F91</f>
+        <f t="shared" si="7"/>
         <v>1.6420252685116823E-4</v>
       </c>
       <c r="I91">
-        <f>D91/F91</f>
+        <f t="shared" si="8"/>
         <v>7.7604364309554379E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91">
+        <v>2.23674973711303E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -3884,19 +4161,22 @@
         <v>324616652</v>
       </c>
       <c r="G92">
-        <f>B92/F92</f>
+        <f t="shared" si="6"/>
         <v>2.2445566001573662E-4</v>
       </c>
       <c r="H92">
-        <f>C92/F92</f>
+        <f t="shared" si="7"/>
         <v>1.4297863593094447E-4</v>
       </c>
       <c r="I92">
-        <f>D92/F92</f>
+        <f t="shared" si="8"/>
         <v>6.3973714530708671E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92">
+        <v>1.75698794583144E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -3916,19 +4196,22 @@
         <v>392702028</v>
       </c>
       <c r="G93">
-        <f>B93/F93</f>
+        <f t="shared" si="6"/>
         <v>7.4355423694004961E-4</v>
       </c>
       <c r="H93">
-        <f>C93/F93</f>
+        <f t="shared" si="7"/>
         <v>2.4119274138685834E-4</v>
       </c>
       <c r="I93">
-        <f>D93/F93</f>
+        <f t="shared" si="8"/>
         <v>6.4412752229753185E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93">
+        <v>1.54124175464205E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -3948,19 +4231,22 @@
         <v>298259247</v>
       </c>
       <c r="G94">
-        <f>B94/F94</f>
+        <f t="shared" si="6"/>
         <v>3.7294218932625419E-4</v>
       </c>
       <c r="H94">
-        <f>C94/F94</f>
+        <f t="shared" si="7"/>
         <v>1.7573411996455888E-4</v>
       </c>
       <c r="I94">
-        <f>D94/F94</f>
+        <f t="shared" si="8"/>
         <v>7.8361240543526212E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94">
+        <v>2.12009016193292E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -3980,19 +4266,22 @@
         <v>367914954</v>
       </c>
       <c r="G95">
-        <f>B95/F95</f>
+        <f t="shared" si="6"/>
         <v>7.7678954647676819E-4</v>
       </c>
       <c r="H95">
-        <f>C95/F95</f>
+        <f t="shared" si="7"/>
         <v>1.648621212954092E-4</v>
       </c>
       <c r="I95">
-        <f>D95/F95</f>
+        <f t="shared" si="8"/>
         <v>7.5432052399262636E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95">
+        <v>2.0462407017058301E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -4012,19 +4301,22 @@
         <v>260313225</v>
       </c>
       <c r="G96">
-        <f>B96/F96</f>
+        <f t="shared" si="6"/>
         <v>1.8798737012791494E-4</v>
       </c>
       <c r="H96">
-        <f>C96/F96</f>
+        <f t="shared" si="7"/>
         <v>1.8028238572940925E-4</v>
       </c>
       <c r="I96">
-        <f>D96/F96</f>
+        <f t="shared" si="8"/>
         <v>7.9597725565247017E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>2.2422357199830201E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -4044,19 +4336,22 @@
         <v>307957576</v>
       </c>
       <c r="G97">
-        <f>B97/F97</f>
+        <f t="shared" si="6"/>
         <v>2.3860299509633173E-4</v>
       </c>
       <c r="H97">
-        <f>C97/F97</f>
+        <f t="shared" si="7"/>
         <v>2.2463078069380083E-4</v>
       </c>
       <c r="I97">
-        <f>D97/F97</f>
+        <f t="shared" si="8"/>
         <v>8.8164965243991908E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97">
+        <v>2.4293693841515598E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4076,19 +4371,22 @@
         <v>328380341</v>
       </c>
       <c r="G98">
-        <f>B98/F98</f>
+        <f t="shared" ref="G98:G129" si="9">B98/F98</f>
         <v>1.2184812793790509E-3</v>
       </c>
       <c r="H98">
-        <f>C98/F98</f>
+        <f t="shared" ref="H98:H129" si="10">C98/F98</f>
         <v>2.353586909028747E-4</v>
       </c>
       <c r="I98">
-        <f>D98/F98</f>
+        <f t="shared" ref="I98:I129" si="11">D98/F98</f>
         <v>8.0029654553568415E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98">
+        <v>2.1211601377862498E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -4108,19 +4406,22 @@
         <v>317878065</v>
       </c>
       <c r="G99">
-        <f>B99/F99</f>
+        <f t="shared" si="9"/>
         <v>6.6843413192078856E-5</v>
       </c>
       <c r="H99">
-        <f>C99/F99</f>
+        <f t="shared" si="10"/>
         <v>1.487035519269104E-4</v>
       </c>
       <c r="I99">
-        <f>D99/F99</f>
+        <f t="shared" si="11"/>
         <v>6.718134523304998E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99">
+        <v>1.9058464707291702E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -4140,19 +4441,22 @@
         <v>317444967</v>
       </c>
       <c r="G100">
-        <f>B100/F100</f>
+        <f t="shared" si="9"/>
         <v>7.0244170022286097E-4</v>
       </c>
       <c r="H100">
-        <f>C100/F100</f>
+        <f t="shared" si="10"/>
         <v>2.1575354916808086E-4</v>
       </c>
       <c r="I100">
-        <f>D100/F100</f>
+        <f t="shared" si="11"/>
         <v>6.5234682732588098E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>1.65413872072258E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -4172,19 +4476,22 @@
         <v>283448214</v>
       </c>
       <c r="G101">
-        <f>B101/F101</f>
+        <f t="shared" si="9"/>
         <v>3.9411093998984587E-4</v>
       </c>
       <c r="H101">
-        <f>C101/F101</f>
+        <f t="shared" si="10"/>
         <v>1.7129415091771295E-4</v>
       </c>
       <c r="I101">
-        <f>D101/F101</f>
+        <f t="shared" si="11"/>
         <v>5.3969756366238743E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101">
+        <v>1.2896340096516501E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -4204,19 +4511,22 @@
         <v>302028834</v>
       </c>
       <c r="G102">
-        <f>B102/F102</f>
+        <f t="shared" si="9"/>
         <v>7.3360792639505073E-5</v>
       </c>
       <c r="H102">
-        <f>C102/F102</f>
+        <f t="shared" si="10"/>
         <v>1.5271887141477989E-4</v>
       </c>
       <c r="I102">
-        <f>D102/F102</f>
+        <f t="shared" si="11"/>
         <v>7.4697925597541782E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>2.2035999876794801E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -4236,19 +4546,22 @@
         <v>349395064</v>
       </c>
       <c r="G103">
-        <f>B103/F103</f>
+        <f t="shared" si="9"/>
         <v>6.1933905402458117E-5</v>
       </c>
       <c r="H103">
-        <f>C103/F103</f>
+        <f t="shared" si="10"/>
         <v>1.3804405326628514E-4</v>
       </c>
       <c r="I103">
-        <f>D103/F103</f>
+        <f t="shared" si="11"/>
         <v>7.0410265658368311E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>2.0086628083469098E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -4268,19 +4581,22 @@
         <v>315718849</v>
       </c>
       <c r="G104">
-        <f>B104/F104</f>
+        <f t="shared" si="9"/>
         <v>6.1860645212438042E-4</v>
       </c>
       <c r="H104">
-        <f>C104/F104</f>
+        <f t="shared" si="10"/>
         <v>1.9261177005535865E-4</v>
       </c>
       <c r="I104">
-        <f>D104/F104</f>
+        <f t="shared" si="11"/>
         <v>6.1337677702090572E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104">
+        <v>1.45052918439143E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -4300,19 +4616,22 @@
         <v>360434425</v>
       </c>
       <c r="G105">
-        <f>B105/F105</f>
+        <f t="shared" si="9"/>
         <v>9.3026500090724964E-4</v>
       </c>
       <c r="H105">
-        <f>C105/F105</f>
+        <f t="shared" si="10"/>
         <v>2.2982753115580317E-4</v>
       </c>
       <c r="I105">
-        <f>D105/F105</f>
+        <f t="shared" si="11"/>
         <v>6.277414056482313E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105">
+        <v>1.4957100888665399E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4332,19 +4651,22 @@
         <v>304975519</v>
       </c>
       <c r="G106">
-        <f>B106/F106</f>
+        <f t="shared" si="9"/>
         <v>9.919762082169488E-5</v>
       </c>
       <c r="H106">
-        <f>C106/F106</f>
+        <f t="shared" si="10"/>
         <v>1.3794544140105882E-4</v>
       </c>
       <c r="I106">
-        <f>D106/F106</f>
+        <f t="shared" si="11"/>
         <v>7.0032007455874852E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106">
+        <v>1.92660282926411E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -4364,19 +4686,22 @@
         <v>433149549</v>
       </c>
       <c r="G107">
-        <f>B107/F107</f>
+        <f t="shared" si="9"/>
         <v>1.4295534024543402E-4</v>
       </c>
       <c r="H107">
-        <f>C107/F107</f>
+        <f t="shared" si="10"/>
         <v>1.3118421311329127E-4</v>
       </c>
       <c r="I107">
-        <f>D107/F107</f>
+        <f t="shared" si="11"/>
         <v>5.6128957957863185E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107">
+        <v>1.4108110155749001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -4396,19 +4721,22 @@
         <v>331881103</v>
       </c>
       <c r="G108">
-        <f>B108/F108</f>
+        <f t="shared" si="9"/>
         <v>4.372476433484012E-5</v>
       </c>
       <c r="H108">
-        <f>C108/F108</f>
+        <f t="shared" si="10"/>
         <v>1.6016540980980741E-4</v>
       </c>
       <c r="I108">
-        <f>D108/F108</f>
+        <f t="shared" si="11"/>
         <v>7.7766423619483995E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108">
+        <v>2.1272736461528701E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -4428,19 +4756,22 @@
         <v>310522687</v>
       </c>
       <c r="G109">
-        <f>B109/F109</f>
+        <f t="shared" si="9"/>
         <v>1.327526778883087E-4</v>
       </c>
       <c r="H109">
-        <f>C109/F109</f>
+        <f t="shared" si="10"/>
         <v>1.9686797227372278E-4</v>
       </c>
       <c r="I109">
-        <f>D109/F109</f>
+        <f t="shared" si="11"/>
         <v>7.5710322399208151E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109">
+        <v>2.1882730232890901E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -4460,19 +4791,22 @@
         <v>316857199</v>
       </c>
       <c r="G110">
-        <f>B110/F110</f>
+        <f t="shared" si="9"/>
         <v>8.538824790135697E-5</v>
       </c>
       <c r="H110">
-        <f>C110/F110</f>
+        <f t="shared" si="10"/>
         <v>1.5836739578576814E-4</v>
       </c>
       <c r="I110">
-        <f>D110/F110</f>
+        <f t="shared" si="11"/>
         <v>7.2743795494566305E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110">
+        <v>1.9693971744063399E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -4492,19 +4826,22 @@
         <v>341045048</v>
       </c>
       <c r="G111">
-        <f>B111/F111</f>
+        <f t="shared" si="9"/>
         <v>5.1163476628239445E-5</v>
       </c>
       <c r="H111">
-        <f>C111/F111</f>
+        <f t="shared" si="10"/>
         <v>1.3764389354946975E-4</v>
       </c>
       <c r="I111">
-        <f>D111/F111</f>
+        <f t="shared" si="11"/>
         <v>7.5346140254026802E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111">
+        <v>2.2018425199599501E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -4524,19 +4861,22 @@
         <v>304342528</v>
       </c>
       <c r="G112">
-        <f>B112/F112</f>
+        <f t="shared" si="9"/>
         <v>8.8714853499876953E-5</v>
       </c>
       <c r="H112">
-        <f>C112/F112</f>
+        <f t="shared" si="10"/>
         <v>1.7331023540179046E-4</v>
       </c>
       <c r="I112">
-        <f>D112/F112</f>
+        <f t="shared" si="11"/>
         <v>7.5636122843822547E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112">
+        <v>2.1429838274076199E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -4556,19 +4896,22 @@
         <v>300140171</v>
       </c>
       <c r="G113">
-        <f>B113/F113</f>
+        <f t="shared" si="9"/>
         <v>4.5094005865656012E-4</v>
       </c>
       <c r="H113">
-        <f>C113/F113</f>
+        <f t="shared" si="10"/>
         <v>1.6986315613778103E-4</v>
       </c>
       <c r="I113">
-        <f>D113/F113</f>
+        <f t="shared" si="11"/>
         <v>6.0241845157789293E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113">
+        <v>1.3573515223095699E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -4588,19 +4931,22 @@
         <v>314545851</v>
       </c>
       <c r="G114">
-        <f>B114/F114</f>
+        <f t="shared" si="9"/>
         <v>5.0377602091388894E-5</v>
       </c>
       <c r="H114">
-        <f>C114/F114</f>
+        <f t="shared" si="10"/>
         <v>1.5409709542871033E-4</v>
       </c>
       <c r="I114">
-        <f>D114/F114</f>
+        <f t="shared" si="11"/>
         <v>6.920937192299987E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114">
+        <v>1.99000337875163E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -4620,19 +4966,22 @@
         <v>329290893</v>
       </c>
       <c r="G115">
-        <f>B115/F115</f>
+        <f t="shared" si="9"/>
         <v>4.4995702818612115E-4</v>
       </c>
       <c r="H115">
-        <f>C115/F115</f>
+        <f t="shared" si="10"/>
         <v>1.8772929778831479E-4</v>
       </c>
       <c r="I115">
-        <f>D115/F115</f>
+        <f t="shared" si="11"/>
         <v>5.7411336666975477E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115">
+        <v>1.37220652516713E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -4652,19 +5001,22 @@
         <v>333852872</v>
       </c>
       <c r="G116">
-        <f>B116/F116</f>
+        <f t="shared" si="9"/>
         <v>4.9182010357211187E-5</v>
       </c>
       <c r="H116">
-        <f>C116/F116</f>
+        <f t="shared" si="10"/>
         <v>1.5367976360422325E-4</v>
       </c>
       <c r="I116">
-        <f>D116/F116</f>
+        <f t="shared" si="11"/>
         <v>7.2176213548986326E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116">
+        <v>2.17279564071075E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -4684,19 +5036,22 @@
         <v>321040924</v>
       </c>
       <c r="G117">
-        <f>B117/F117</f>
+        <f t="shared" si="9"/>
         <v>9.8915089234215508E-4</v>
       </c>
       <c r="H117">
-        <f>C117/F117</f>
+        <f t="shared" si="10"/>
         <v>1.8512976953806768E-4</v>
       </c>
       <c r="I117">
-        <f>D117/F117</f>
+        <f t="shared" si="11"/>
         <v>7.8260772598286264E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117">
+        <v>2.26951515378465E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -4716,19 +5071,22 @@
         <v>311469542</v>
       </c>
       <c r="G118">
-        <f>B118/F118</f>
+        <f t="shared" si="9"/>
         <v>1.7921264407924292E-4</v>
       </c>
       <c r="H118">
-        <f>C118/F118</f>
+        <f t="shared" si="10"/>
         <v>1.9067444718387071E-4</v>
       </c>
       <c r="I118">
-        <f>D118/F118</f>
+        <f t="shared" si="11"/>
         <v>7.7139850401982801E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118">
+        <v>2.1258622605411701E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -4748,19 +5106,22 @@
         <v>359534838</v>
       </c>
       <c r="G119">
-        <f>B119/F119</f>
+        <f t="shared" si="9"/>
         <v>2.3393591579767411E-3</v>
       </c>
       <c r="H119">
-        <f>C119/F119</f>
+        <f t="shared" si="10"/>
         <v>3.7999095494464986E-4</v>
       </c>
       <c r="I119">
-        <f>D119/F119</f>
+        <f t="shared" si="11"/>
         <v>7.4771300402231115E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119">
+        <v>2.1552998293090701E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -4780,19 +5141,22 @@
         <v>372718152</v>
       </c>
       <c r="G120">
-        <f>B120/F120</f>
+        <f t="shared" si="9"/>
         <v>3.4206300579964241E-3</v>
       </c>
       <c r="H120">
-        <f>C120/F120</f>
+        <f t="shared" si="10"/>
         <v>3.2101064238047628E-4</v>
       </c>
       <c r="I120">
-        <f>D120/F120</f>
+        <f t="shared" si="11"/>
         <v>7.1586601119960755E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120">
+        <v>2.0066382411243599E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -4812,19 +5176,22 @@
         <v>311888634</v>
       </c>
       <c r="G121">
-        <f>B121/F121</f>
+        <f t="shared" si="9"/>
         <v>2.2681044359314838E-4</v>
       </c>
       <c r="H121">
-        <f>C121/F121</f>
+        <f t="shared" si="10"/>
         <v>1.6460833949254305E-4</v>
       </c>
       <c r="I121">
-        <f>D121/F121</f>
+        <f t="shared" si="11"/>
         <v>6.904236876447604E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121">
+        <v>1.84095869252426E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -4844,19 +5211,22 @@
         <v>342491361</v>
       </c>
       <c r="G122">
-        <f>B122/F122</f>
+        <f t="shared" si="9"/>
         <v>3.0841807579750892E-4</v>
       </c>
       <c r="H122">
-        <f>C122/F122</f>
+        <f t="shared" si="10"/>
         <v>1.2689709511555037E-4</v>
       </c>
       <c r="I122">
-        <f>D122/F122</f>
+        <f t="shared" si="11"/>
         <v>5.7758865723953256E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122">
+        <v>1.34238939603271E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -4876,19 +5246,22 @@
         <v>319703262</v>
       </c>
       <c r="G123">
-        <f>B123/F123</f>
+        <f t="shared" si="9"/>
         <v>3.145263603252537E-3</v>
       </c>
       <c r="H123">
-        <f>C123/F123</f>
+        <f t="shared" si="10"/>
         <v>3.378416468702437E-4</v>
       </c>
       <c r="I123">
-        <f>D123/F123</f>
+        <f t="shared" si="11"/>
         <v>7.1504193792652944E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123">
+        <v>1.90545405361165E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -4908,19 +5281,22 @@
         <v>335660959</v>
       </c>
       <c r="G124">
-        <f>B124/F124</f>
+        <f t="shared" si="9"/>
         <v>2.4685264913894262E-4</v>
       </c>
       <c r="H124">
-        <f>C124/F124</f>
+        <f t="shared" si="10"/>
         <v>1.4821401570523459E-4</v>
       </c>
       <c r="I124">
-        <f>D124/F124</f>
+        <f t="shared" si="11"/>
         <v>7.45134292787622E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124">
+        <v>2.0650301858930201E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -4940,19 +5316,22 @@
         <v>300762214</v>
       </c>
       <c r="G125">
-        <f>B125/F125</f>
+        <f t="shared" si="9"/>
         <v>1.3522818923465932E-3</v>
       </c>
       <c r="H125">
-        <f>C125/F125</f>
+        <f t="shared" si="10"/>
         <v>2.897262992312977E-4</v>
       </c>
       <c r="I125">
-        <f>D125/F125</f>
+        <f t="shared" si="11"/>
         <v>7.7107126964245255E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125">
+        <v>1.8967226470814402E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -4972,19 +5351,22 @@
         <v>288959000</v>
       </c>
       <c r="G126">
-        <f>B126/F126</f>
+        <f t="shared" si="9"/>
         <v>2.0095168769423657E-4</v>
       </c>
       <c r="H126">
-        <f>C126/F126</f>
+        <f t="shared" si="10"/>
         <v>2.0004012137700018E-4</v>
       </c>
       <c r="I126">
-        <f>D126/F126</f>
+        <f t="shared" si="11"/>
         <v>8.1557442370433879E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126">
+        <v>2.2433284335392101E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -5004,19 +5386,22 @@
         <v>288134459</v>
       </c>
       <c r="G127">
-        <f>B127/F127</f>
+        <f t="shared" si="9"/>
         <v>2.4022323121694551E-4</v>
       </c>
       <c r="H127">
-        <f>C127/F127</f>
+        <f t="shared" si="10"/>
         <v>1.9588704975364191E-4</v>
       </c>
       <c r="I127">
-        <f>D127/F127</f>
+        <f t="shared" si="11"/>
         <v>8.0157715307525579E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127">
+        <v>2.2455678367984601E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5036,19 +5421,22 @@
         <v>366908583</v>
       </c>
       <c r="G128">
-        <f>B128/F128</f>
+        <f t="shared" si="9"/>
         <v>1.5717530692960295E-4</v>
       </c>
       <c r="H128">
-        <f>C128/F128</f>
+        <f t="shared" si="10"/>
         <v>1.5964696324010006E-4</v>
       </c>
       <c r="I128">
-        <f>D128/F128</f>
+        <f t="shared" si="11"/>
         <v>8.7746018773720274E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128">
+        <v>2.87757621337889E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -5068,19 +5456,22 @@
         <v>333376323</v>
       </c>
       <c r="G129">
-        <f>B129/F129</f>
+        <f t="shared" si="9"/>
         <v>2.6436269223573236E-4</v>
       </c>
       <c r="H129">
-        <f>C129/F129</f>
+        <f t="shared" si="10"/>
         <v>2.1741055142460703E-4</v>
       </c>
       <c r="I129">
-        <f>D129/F129</f>
+        <f t="shared" si="11"/>
         <v>8.6931032527243386E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129">
+        <v>2.51681245883448E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -5100,19 +5491,22 @@
         <v>345266565</v>
       </c>
       <c r="G130">
-        <f>B130/F130</f>
+        <f t="shared" ref="G130:G161" si="12">B130/F130</f>
         <v>1.8665323644673936E-4</v>
       </c>
       <c r="H130">
-        <f>C130/F130</f>
+        <f t="shared" ref="H130:H161" si="13">C130/F130</f>
         <v>1.622692173669078E-4</v>
       </c>
       <c r="I130">
-        <f>D130/F130</f>
+        <f t="shared" ref="I130:I161" si="14">D130/F130</f>
         <v>6.357121513934777E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130">
+        <v>1.4807369293199001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -5132,19 +5526,22 @@
         <v>269640573</v>
       </c>
       <c r="G131">
-        <f>B131/F131</f>
+        <f t="shared" si="12"/>
         <v>1.3943141585091981E-4</v>
       </c>
       <c r="H131">
-        <f>C131/F131</f>
+        <f t="shared" si="13"/>
         <v>2.0494475397792638E-4</v>
       </c>
       <c r="I131">
-        <f>D131/F131</f>
+        <f t="shared" si="14"/>
         <v>8.4030303839977387E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131">
+        <v>2.6886497318539999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -5164,19 +5561,22 @@
         <v>307362470</v>
       </c>
       <c r="G132">
-        <f>B132/F132</f>
+        <f t="shared" si="12"/>
         <v>3.2232190191208281E-4</v>
       </c>
       <c r="H132">
-        <f>C132/F132</f>
+        <f t="shared" si="13"/>
         <v>2.6634441786867408E-4</v>
       </c>
       <c r="I132">
-        <f>D132/F132</f>
+        <f t="shared" si="14"/>
         <v>8.8788245225983834E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132">
+        <v>2.7480082628353001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -5196,19 +5596,22 @@
         <v>311678782</v>
       </c>
       <c r="G133">
-        <f>B133/F133</f>
+        <f t="shared" si="12"/>
         <v>8.0214774095927388E-4</v>
       </c>
       <c r="H133">
-        <f>C133/F133</f>
+        <f t="shared" si="13"/>
         <v>2.9937316273069239E-4</v>
       </c>
       <c r="I133">
-        <f>D133/F133</f>
+        <f t="shared" si="14"/>
         <v>7.4972449695384462E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133">
+        <v>2.5742363509975399E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -5228,19 +5631,22 @@
         <v>316894061</v>
       </c>
       <c r="G134">
-        <f>B134/F134</f>
+        <f t="shared" si="12"/>
         <v>2.8636021824766104E-4</v>
       </c>
       <c r="H134">
-        <f>C134/F134</f>
+        <f t="shared" si="13"/>
         <v>2.8083023635549673E-4</v>
       </c>
       <c r="I134">
-        <f>D134/F134</f>
+        <f t="shared" si="14"/>
         <v>9.9345300801170905E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134">
+        <v>3.28188873806027E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -5260,19 +5666,22 @@
         <v>298480291</v>
       </c>
       <c r="G135">
-        <f>B135/F135</f>
+        <f t="shared" si="12"/>
         <v>6.0979365849409472E-4</v>
       </c>
       <c r="H135">
-        <f>C135/F135</f>
+        <f t="shared" si="13"/>
         <v>3.3916459460586295E-4</v>
       </c>
       <c r="I135">
-        <f>D135/F135</f>
+        <f t="shared" si="14"/>
         <v>9.9106983898226975E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135">
+        <v>3.1128197600695701E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -5292,19 +5701,22 @@
         <v>253608239</v>
       </c>
       <c r="G136">
-        <f>B136/F136</f>
+        <f t="shared" si="12"/>
         <v>2.574080154088543E-4</v>
       </c>
       <c r="H136">
-        <f>C136/F136</f>
+        <f t="shared" si="13"/>
         <v>2.469682099828689E-4</v>
       </c>
       <c r="I136">
-        <f>D136/F136</f>
+        <f t="shared" si="14"/>
         <v>9.3809496062555748E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136">
+        <v>2.9397121599068699E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -5324,19 +5736,22 @@
         <v>325056836</v>
       </c>
       <c r="G137">
-        <f>B137/F137</f>
+        <f t="shared" si="12"/>
         <v>1.7607095310030458E-4</v>
       </c>
       <c r="H137">
-        <f>C137/F137</f>
+        <f t="shared" si="13"/>
         <v>2.3637855007390676E-4</v>
       </c>
       <c r="I137">
-        <f>D137/F137</f>
+        <f t="shared" si="14"/>
         <v>1.0314412819960414E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137">
+        <v>3.5175419584234202E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -5356,19 +5771,22 @@
         <v>303538659</v>
       </c>
       <c r="G138">
-        <f>B138/F138</f>
+        <f t="shared" si="12"/>
         <v>6.2982016187526212E-4</v>
       </c>
       <c r="H138">
-        <f>C138/F138</f>
+        <f t="shared" si="13"/>
         <v>2.2376834068418415E-4</v>
       </c>
       <c r="I138">
-        <f>D138/F138</f>
+        <f t="shared" si="14"/>
         <v>7.5181799826786145E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138">
+        <v>1.98456232729123E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -5388,19 +5806,22 @@
         <v>403657238</v>
       </c>
       <c r="G139">
-        <f>B139/F139</f>
+        <f t="shared" si="12"/>
         <v>8.3197260748623064E-4</v>
       </c>
       <c r="H139">
-        <f>C139/F139</f>
+        <f t="shared" si="13"/>
         <v>2.7146824765670371E-4</v>
       </c>
       <c r="I139">
-        <f>D139/F139</f>
+        <f t="shared" si="14"/>
         <v>6.6141892663291232E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139">
+        <v>1.6308243841337999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -5420,19 +5841,22 @@
         <v>317570168</v>
       </c>
       <c r="G140">
-        <f>B140/F140</f>
+        <f t="shared" si="12"/>
         <v>2.1292523532372097E-4</v>
       </c>
       <c r="H140">
-        <f>C140/F140</f>
+        <f t="shared" si="13"/>
         <v>2.3621889960477081E-4</v>
       </c>
       <c r="I140">
-        <f>D140/F140</f>
+        <f t="shared" si="14"/>
         <v>8.2299551694316585E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140">
+        <v>2.8439920213214301E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -5452,19 +5876,22 @@
         <v>345187806</v>
       </c>
       <c r="G141">
-        <f>B141/F141</f>
+        <f t="shared" si="12"/>
         <v>1.5609660974482454E-3</v>
       </c>
       <c r="H141">
-        <f>C141/F141</f>
+        <f t="shared" si="13"/>
         <v>4.6389259275751477E-4</v>
       </c>
       <c r="I141">
-        <f>D141/F141</f>
+        <f t="shared" si="14"/>
         <v>8.8294003836070327E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141">
+        <v>2.7327484787311101E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -5484,19 +5911,22 @@
         <v>378641950</v>
       </c>
       <c r="G142">
-        <f>B142/F142</f>
+        <f t="shared" si="12"/>
         <v>1.9379023787904906E-4</v>
       </c>
       <c r="H142">
-        <f>C142/F142</f>
+        <f t="shared" si="13"/>
         <v>2.3755464955992252E-4</v>
       </c>
       <c r="I142">
-        <f>D142/F142</f>
+        <f t="shared" si="14"/>
         <v>9.1469473021560874E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142">
+        <v>2.8593964344570202E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -5516,19 +5946,22 @@
         <v>311139237</v>
       </c>
       <c r="G143">
-        <f>B143/F143</f>
+        <f t="shared" si="12"/>
         <v>4.0432021926152311E-4</v>
       </c>
       <c r="H143">
-        <f>C143/F143</f>
+        <f t="shared" si="13"/>
         <v>2.3979416480325626E-4</v>
       </c>
       <c r="I143">
-        <f>D143/F143</f>
+        <f t="shared" si="14"/>
         <v>8.6762450457376419E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143">
+        <v>2.6745782972014999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -5548,19 +5981,22 @@
         <v>309043914</v>
       </c>
       <c r="G144">
-        <f>B144/F144</f>
+        <f t="shared" si="12"/>
         <v>1.7964172771342942E-4</v>
       </c>
       <c r="H144">
-        <f>C144/F144</f>
+        <f t="shared" si="13"/>
         <v>2.0905796634062109E-4</v>
       </c>
       <c r="I144">
-        <f>D144/F144</f>
+        <f t="shared" si="14"/>
         <v>9.0601098944322507E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144">
+        <v>2.8920770860681101E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -5580,19 +6016,22 @@
         <v>265064735</v>
       </c>
       <c r="G145">
-        <f>B145/F145</f>
+        <f t="shared" si="12"/>
         <v>1.5644488322625187E-4</v>
       </c>
       <c r="H145">
-        <f>C145/F145</f>
+        <f t="shared" si="13"/>
         <v>1.9737721878935197E-4</v>
       </c>
       <c r="I145">
-        <f>D145/F145</f>
+        <f t="shared" si="14"/>
         <v>7.916542277145543E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145">
+        <v>2.5414546843212701E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -5612,19 +6051,22 @@
         <v>298777816</v>
       </c>
       <c r="G146">
-        <f>B146/F146</f>
+        <f t="shared" si="12"/>
         <v>6.7368141793648422E-4</v>
       </c>
       <c r="H146">
-        <f>C146/F146</f>
+        <f t="shared" si="13"/>
         <v>2.0453542456350609E-4</v>
       </c>
       <c r="I146">
-        <f>D146/F146</f>
+        <f t="shared" si="14"/>
         <v>6.9553858915173605E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146">
+        <v>1.7304106593801001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -5644,19 +6086,22 @@
         <v>315701877</v>
       </c>
       <c r="G147">
-        <f>B147/F147</f>
+        <f t="shared" si="12"/>
         <v>3.5581234690213766E-4</v>
       </c>
       <c r="H147">
-        <f>C147/F147</f>
+        <f t="shared" si="13"/>
         <v>1.2503468365845065E-4</v>
       </c>
       <c r="I147">
-        <f>D147/F147</f>
+        <f t="shared" si="14"/>
         <v>4.8857612513568934E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147">
+        <v>1.5787549322441401E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -5676,19 +6121,22 @@
         <v>340814002</v>
       </c>
       <c r="G148">
-        <f>B148/F148</f>
+        <f t="shared" si="12"/>
         <v>3.79062783192332E-4</v>
       </c>
       <c r="H148">
-        <f>C148/F148</f>
+        <f t="shared" si="13"/>
         <v>1.9206269503743687E-4</v>
       </c>
       <c r="I148">
-        <f>D148/F148</f>
+        <f t="shared" si="14"/>
         <v>7.9241266806032822E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148">
+        <v>2.60009019825733E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>178</v>
       </c>
@@ -5708,19 +6156,22 @@
         <v>307302490</v>
       </c>
       <c r="G149">
-        <f>B149/F149</f>
+        <f t="shared" si="12"/>
         <v>2.9183811184796681E-4</v>
       </c>
       <c r="H149">
-        <f>C149/F149</f>
+        <f t="shared" si="13"/>
         <v>1.8548600456585204E-4</v>
       </c>
       <c r="I149">
-        <f>D149/F149</f>
+        <f t="shared" si="14"/>
         <v>7.2274948341649291E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149">
+        <v>1.7234743658268398E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -5740,19 +6191,22 @@
         <v>297683763</v>
       </c>
       <c r="G150">
-        <f>B150/F150</f>
+        <f t="shared" si="12"/>
         <v>1.0744742278684848E-4</v>
       </c>
       <c r="H150">
-        <f>C150/F150</f>
+        <f t="shared" si="13"/>
         <v>1.6965577035982744E-4</v>
       </c>
       <c r="I150">
-        <f>D150/F150</f>
+        <f t="shared" si="14"/>
         <v>7.8449504549713712E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150">
+        <v>2.1760004995526001E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -5772,19 +6226,22 @@
         <v>282368061</v>
       </c>
       <c r="G151">
-        <f>B151/F151</f>
+        <f t="shared" si="12"/>
         <v>2.65073378815841E-4</v>
       </c>
       <c r="H151">
-        <f>C151/F151</f>
+        <f t="shared" si="13"/>
         <v>1.6195443263811873E-4</v>
       </c>
       <c r="I151">
-        <f>D151/F151</f>
+        <f t="shared" si="14"/>
         <v>8.6217745118357409E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151">
+        <v>2.65126059158836E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -5804,19 +6261,22 @@
         <v>306158190</v>
       </c>
       <c r="G152">
-        <f>B152/F152</f>
+        <f t="shared" si="12"/>
         <v>6.4141902068958856E-4</v>
       </c>
       <c r="H152">
-        <f>C152/F152</f>
+        <f t="shared" si="13"/>
         <v>1.7405131590921509E-4</v>
       </c>
       <c r="I152">
-        <f>D152/F152</f>
+        <f t="shared" si="14"/>
         <v>7.4808759553600711E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152">
+        <v>1.7998389496397201E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -5836,19 +6296,22 @@
         <v>333342581</v>
       </c>
       <c r="G153">
-        <f>B153/F153</f>
+        <f t="shared" si="12"/>
         <v>1.3337552736585937E-4</v>
       </c>
       <c r="H153">
-        <f>C153/F153</f>
+        <f t="shared" si="13"/>
         <v>1.7780655907606533E-4</v>
       </c>
       <c r="I153">
-        <f>D153/F153</f>
+        <f t="shared" si="14"/>
         <v>8.0060075944216984E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153">
+        <v>2.4737894845188801E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -5868,19 +6331,22 @@
         <v>363194462</v>
       </c>
       <c r="G154">
-        <f>B154/F154</f>
+        <f t="shared" si="12"/>
         <v>4.177318887128736E-4</v>
       </c>
       <c r="H154">
-        <f>C154/F154</f>
+        <f t="shared" si="13"/>
         <v>1.651647936744187E-4</v>
       </c>
       <c r="I154">
-        <f>D154/F154</f>
+        <f t="shared" si="14"/>
         <v>6.8640661176908313E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154">
+        <v>1.7440763147009999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -5900,19 +6366,22 @@
         <v>284108697</v>
       </c>
       <c r="G155">
-        <f>B155/F155</f>
+        <f t="shared" si="12"/>
         <v>8.7604261178863879E-4</v>
       </c>
       <c r="H155">
-        <f>C155/F155</f>
+        <f t="shared" si="13"/>
         <v>2.1376894686853814E-4</v>
       </c>
       <c r="I155">
-        <f>D155/F155</f>
+        <f t="shared" si="14"/>
         <v>8.0652239524402515E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155">
+        <v>2.54547101591583E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -5932,19 +6401,22 @@
         <v>318899103</v>
       </c>
       <c r="G156">
-        <f>B156/F156</f>
+        <f t="shared" si="12"/>
         <v>2.2865770285037492E-5</v>
       </c>
       <c r="H156">
-        <f>C156/F156</f>
+        <f t="shared" si="13"/>
         <v>1.733493550030158E-4</v>
       </c>
       <c r="I156">
-        <f>D156/F156</f>
+        <f t="shared" si="14"/>
         <v>7.1686657518646888E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156">
+        <v>2.2484985717510699E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -5964,19 +6436,22 @@
         <v>366398924</v>
       </c>
       <c r="G157">
-        <f>B157/F157</f>
+        <f t="shared" si="12"/>
         <v>3.8130764329116318E-4</v>
       </c>
       <c r="H157">
-        <f>C157/F157</f>
+        <f t="shared" si="13"/>
         <v>2.3396853348676484E-4</v>
       </c>
       <c r="I157">
-        <f>D157/F157</f>
+        <f t="shared" si="14"/>
         <v>1.0015564144056547E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157">
+        <v>3.4540680190556901E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -5996,19 +6471,22 @@
         <v>326725151</v>
       </c>
       <c r="G158">
-        <f>B158/F158</f>
+        <f t="shared" si="12"/>
         <v>4.2016792581694149E-4</v>
       </c>
       <c r="H158">
-        <f>C158/F158</f>
+        <f t="shared" si="13"/>
         <v>1.7919615498245586E-4</v>
       </c>
       <c r="I158">
-        <f>D158/F158</f>
+        <f t="shared" si="14"/>
         <v>7.0999985875065362E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158">
+        <v>1.9151690650474201E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -6028,19 +6506,22 @@
         <v>438981200</v>
       </c>
       <c r="G159">
-        <f>B159/F159</f>
+        <f t="shared" si="12"/>
         <v>3.042927792319079E-4</v>
       </c>
       <c r="H159">
-        <f>C159/F159</f>
+        <f t="shared" si="13"/>
         <v>1.8214169040624541E-4</v>
       </c>
       <c r="I159">
-        <f>D159/F159</f>
+        <f t="shared" si="14"/>
         <v>7.745603456941687E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159">
+        <v>2.72588123868839E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -6060,19 +6541,22 @@
         <v>362668168</v>
       </c>
       <c r="G160">
-        <f>B160/F160</f>
+        <f t="shared" si="12"/>
         <v>6.078955669288241E-4</v>
       </c>
       <c r="H160">
-        <f>C160/F160</f>
+        <f t="shared" si="13"/>
         <v>2.7602767950690119E-4</v>
       </c>
       <c r="I160">
-        <f>D160/F160</f>
+        <f t="shared" si="14"/>
         <v>8.8001699261640465E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160">
+        <v>3.0406739856116201E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -6092,19 +6576,22 @@
         <v>302432611</v>
       </c>
       <c r="G161">
-        <f>B161/F161</f>
+        <f t="shared" si="12"/>
         <v>3.5135468073555404E-4</v>
       </c>
       <c r="H161">
-        <f>C161/F161</f>
+        <f t="shared" si="13"/>
         <v>1.8310014865724518E-4</v>
       </c>
       <c r="I161">
-        <f>D161/F161</f>
+        <f t="shared" si="14"/>
         <v>7.0823329156142825E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161">
+        <v>1.96526698160462E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -6124,19 +6611,22 @@
         <v>358306213</v>
       </c>
       <c r="G162">
-        <f>B162/F162</f>
+        <f t="shared" ref="G162:G193" si="15">B162/F162</f>
         <v>3.2994804289146386E-4</v>
       </c>
       <c r="H162">
-        <f>C162/F162</f>
+        <f t="shared" ref="H162:H181" si="16">C162/F162</f>
         <v>2.2583025396948503E-4</v>
       </c>
       <c r="I162">
-        <f>D162/F162</f>
+        <f t="shared" ref="I162:I181" si="17">D162/F162</f>
         <v>8.9750101627427553E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162">
+        <v>2.7522392690627302E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -6156,19 +6646,22 @@
         <v>389790405</v>
       </c>
       <c r="G163">
-        <f>B163/F163</f>
+        <f t="shared" si="15"/>
         <v>1.6837954683051652E-4</v>
       </c>
       <c r="H163">
-        <f>C163/F163</f>
+        <f t="shared" si="16"/>
         <v>2.0061179242577816E-4</v>
       </c>
       <c r="I163">
-        <f>D163/F163</f>
+        <f t="shared" si="17"/>
         <v>7.8543929637499409E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163">
+        <v>2.4077323530943801E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -6188,19 +6681,22 @@
         <v>300364228</v>
       </c>
       <c r="G164">
-        <f>B164/F164</f>
+        <f t="shared" si="15"/>
         <v>6.1567703174760879E-4</v>
       </c>
       <c r="H164">
-        <f>C164/F164</f>
+        <f t="shared" si="16"/>
         <v>2.0514873976164132E-4</v>
       </c>
       <c r="I164">
-        <f>D164/F164</f>
+        <f t="shared" si="17"/>
         <v>7.2762809969440833E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164">
+        <v>2.5148904976960301E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -6220,19 +6716,22 @@
         <v>373981684</v>
       </c>
       <c r="G165">
-        <f>B165/F165</f>
+        <f t="shared" si="15"/>
         <v>1.0232410577270196E-4</v>
       </c>
       <c r="H165">
-        <f>C165/F165</f>
+        <f t="shared" si="16"/>
         <v>1.7045401743317915E-4</v>
       </c>
       <c r="I165">
-        <f>D165/F165</f>
+        <f t="shared" si="17"/>
         <v>7.7640650163707751E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165">
+        <v>2.5744583087964099E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>142</v>
       </c>
@@ -6252,19 +6751,22 @@
         <v>270128473</v>
       </c>
       <c r="G166">
-        <f>B166/F166</f>
+        <f t="shared" si="15"/>
         <v>1.066377928094222E-4</v>
       </c>
       <c r="H166">
-        <f>C166/F166</f>
+        <f t="shared" si="16"/>
         <v>8.1110348168586803E-5</v>
       </c>
       <c r="I166">
-        <f>D166/F166</f>
+        <f t="shared" si="17"/>
         <v>6.635596777503347E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166">
+        <v>1.94706413871912E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>143</v>
       </c>
@@ -6284,19 +6786,22 @@
         <v>277553979</v>
       </c>
       <c r="G167">
-        <f>B167/F167</f>
+        <f t="shared" si="15"/>
         <v>8.6759357342181714E-4</v>
       </c>
       <c r="H167">
-        <f>C167/F167</f>
+        <f t="shared" si="16"/>
         <v>1.7937861258074273E-4</v>
       </c>
       <c r="I167">
-        <f>D167/F167</f>
+        <f t="shared" si="17"/>
         <v>5.847113177075044E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167">
+        <v>1.46216086034719E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -6316,19 +6821,22 @@
         <v>306718487</v>
       </c>
       <c r="G168">
-        <f>B168/F168</f>
+        <f t="shared" si="15"/>
         <v>4.600527111181564E-4</v>
       </c>
       <c r="H168">
-        <f>C168/F168</f>
+        <f t="shared" si="16"/>
         <v>2.8896545626686757E-4</v>
       </c>
       <c r="I168">
-        <f>D168/F168</f>
+        <f t="shared" si="17"/>
         <v>8.4036013627903691E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168">
+        <v>3.1553672478697503E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -6348,19 +6856,22 @@
         <v>134566031</v>
       </c>
       <c r="G169">
-        <f>B169/F169</f>
+        <f t="shared" si="15"/>
         <v>1.6886471715430769E-4</v>
       </c>
       <c r="H169">
-        <f>C169/F169</f>
+        <f t="shared" si="16"/>
         <v>2.2939858188696744E-4</v>
       </c>
       <c r="I169">
-        <f>D169/F169</f>
+        <f t="shared" si="17"/>
         <v>8.8988438339345829E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169">
+        <v>2.60027353667888E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -6380,19 +6891,22 @@
         <v>135522562</v>
       </c>
       <c r="G170">
-        <f>B170/F170</f>
+        <f t="shared" si="15"/>
         <v>2.9475827553853139E-4</v>
       </c>
       <c r="H170">
-        <f>C170/F170</f>
+        <f t="shared" si="16"/>
         <v>2.1641689876128299E-4</v>
       </c>
       <c r="I170">
-        <f>D170/F170</f>
+        <f t="shared" si="17"/>
         <v>8.9324347400024061E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170">
+        <v>2.6657107881071802E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -6412,19 +6926,22 @@
         <v>402302512</v>
       </c>
       <c r="G171">
-        <f>B171/F171</f>
+        <f t="shared" si="15"/>
         <v>2.0252497159545948E-4</v>
       </c>
       <c r="H171">
-        <f>C171/F171</f>
+        <f t="shared" si="16"/>
         <v>2.365998861126746E-4</v>
       </c>
       <c r="I171">
-        <f>D171/F171</f>
+        <f t="shared" si="17"/>
         <v>8.1511536376026907E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171">
+        <v>2.28560717317213E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -6444,19 +6961,22 @@
         <v>349127221</v>
       </c>
       <c r="G172">
-        <f>B172/F172</f>
+        <f t="shared" si="15"/>
         <v>1.4998797452218658E-4</v>
       </c>
       <c r="H172">
-        <f>C172/F172</f>
+        <f t="shared" si="16"/>
         <v>1.9747608750687331E-4</v>
       </c>
       <c r="I172">
-        <f>D172/F172</f>
+        <f t="shared" si="17"/>
         <v>7.4445102370960352E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172">
+        <v>2.2720173176007101E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -6476,19 +6996,22 @@
         <v>374072229</v>
       </c>
       <c r="G173">
-        <f>B173/F173</f>
+        <f t="shared" si="15"/>
         <v>5.6370275974788287E-5</v>
       </c>
       <c r="H173">
-        <f>C173/F173</f>
+        <f t="shared" si="16"/>
         <v>1.8125298729788173E-4</v>
       </c>
       <c r="I173">
-        <f>D173/F173</f>
+        <f t="shared" si="17"/>
         <v>8.5038380449304878E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173">
+        <v>2.6227843081083901E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -6508,19 +7031,22 @@
         <v>407529708</v>
       </c>
       <c r="G174">
-        <f>B174/F174</f>
+        <f t="shared" si="15"/>
         <v>8.971937415656627E-5</v>
       </c>
       <c r="H174">
-        <f>C174/F174</f>
+        <f t="shared" si="16"/>
         <v>1.815067743781791E-4</v>
       </c>
       <c r="I174">
-        <f>D174/F174</f>
+        <f t="shared" si="17"/>
         <v>8.4700997590938815E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174">
+        <v>2.4355703506406701E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -6540,19 +7066,22 @@
         <v>432720305</v>
       </c>
       <c r="G175">
-        <f>B175/F175</f>
+        <f t="shared" si="15"/>
         <v>3.0577863533621792E-4</v>
       </c>
       <c r="H175">
-        <f>C175/F175</f>
+        <f t="shared" si="16"/>
         <v>2.1259445589484713E-4</v>
       </c>
       <c r="I175">
-        <f>D175/F175</f>
+        <f t="shared" si="17"/>
         <v>8.2692444906359783E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175">
+        <v>2.5798617229762798E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -6572,19 +7101,22 @@
         <v>370409251</v>
       </c>
       <c r="G176">
-        <f>B176/F176</f>
+        <f t="shared" si="15"/>
         <v>1.4261014697417048E-4</v>
       </c>
       <c r="H176">
-        <f>C176/F176</f>
+        <f t="shared" si="16"/>
         <v>1.9041734444707429E-4</v>
       </c>
       <c r="I176">
-        <f>D176/F176</f>
+        <f t="shared" si="17"/>
         <v>8.4561879803313825E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176">
+        <v>2.35250909257755E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -6604,19 +7136,22 @@
         <v>231266779</v>
       </c>
       <c r="G177">
-        <f>B177/F177</f>
+        <f t="shared" si="15"/>
         <v>4.3846689356888996E-5</v>
       </c>
       <c r="H177">
-        <f>C177/F177</f>
+        <f t="shared" si="16"/>
         <v>1.2737823067361613E-4</v>
       </c>
       <c r="I177">
-        <f>D177/F177</f>
+        <f t="shared" si="17"/>
         <v>7.1126164919359646E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177">
+        <v>1.81111268427743E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -6636,19 +7171,22 @@
         <v>243015035</v>
       </c>
       <c r="G178">
-        <f>B178/F178</f>
+        <f t="shared" si="15"/>
         <v>4.1816255485727866E-3</v>
       </c>
       <c r="H178">
-        <f>C178/F178</f>
+        <f t="shared" si="16"/>
         <v>3.8489787886462044E-4</v>
       </c>
       <c r="I178">
-        <f>D178/F178</f>
+        <f t="shared" si="17"/>
         <v>7.3133009696610338E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178">
+        <v>2.2271098564491498E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>25</v>
       </c>
@@ -6668,19 +7206,22 @@
         <v>235650989</v>
       </c>
       <c r="G179">
-        <f>B179/F179</f>
+        <f t="shared" si="15"/>
         <v>1.5875937913643087E-4</v>
       </c>
       <c r="H179">
-        <f>C179/F179</f>
+        <f t="shared" si="16"/>
         <v>1.3687865366497358E-4</v>
       </c>
       <c r="I179">
-        <f>D179/F179</f>
+        <f t="shared" si="17"/>
         <v>6.9286772131764741E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179">
+        <v>1.8479246808060599E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -6700,19 +7241,22 @@
         <v>226744396</v>
       </c>
       <c r="G180">
-        <f>B180/F180</f>
+        <f t="shared" si="15"/>
         <v>3.5660023957463983E-3</v>
       </c>
       <c r="H180">
-        <f>C180/F180</f>
+        <f t="shared" si="16"/>
         <v>3.6951377907682136E-4</v>
       </c>
       <c r="I180">
-        <f>D180/F180</f>
+        <f t="shared" si="17"/>
         <v>7.3015821930519946E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180">
+        <v>2.1933831667537498E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -6732,16 +7276,19 @@
         <v>363703213</v>
       </c>
       <c r="G181">
-        <f>B181/F181</f>
+        <f t="shared" si="15"/>
         <v>1.4141695122898984E-4</v>
       </c>
       <c r="H181">
-        <f>C181/F181</f>
+        <f t="shared" si="16"/>
         <v>1.7075024131364905E-4</v>
       </c>
       <c r="I181">
-        <f>D181/F181</f>
+        <f t="shared" si="17"/>
         <v>8.5148375521304515E-3</v>
+      </c>
+      <c r="J181">
+        <v>2.4538566776022799E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DFD96A-4FAA-44D4-B489-9B3C318C34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23974D-39DB-4C7B-B6A6-3F2A845E9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="624" windowWidth="21360" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -946,7 +946,7 @@
   <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -960,7 +960,6 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
@@ -1033,7 +1032,7 @@
         <v>2.5736257353364201E-2</v>
       </c>
       <c r="K2">
-        <v>2.2315110298841302E-2</v>
+        <v>2.56248619083885E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1071,7 +1070,7 @@
         <v>2.81504992048872E-2</v>
       </c>
       <c r="K3">
-        <v>2.4538988057459798E-2</v>
+        <v>3.0925117314035099E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1109,7 +1108,7 @@
         <v>2.55348104962431E-2</v>
       </c>
       <c r="K4">
-        <v>2.2465769653411401E-2</v>
+        <v>3.5566305304910902E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1147,7 +1146,7 @@
         <v>1.7816731405269501E-2</v>
       </c>
       <c r="K5">
-        <v>1.51362080948515E-2</v>
+        <v>1.02553535976059E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1185,7 +1184,7 @@
         <v>1.9784193598601799E-2</v>
       </c>
       <c r="K6">
-        <v>1.7019645449294098E-2</v>
+        <v>1.9243435677656199E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1223,7 +1222,7 @@
         <v>2.2643489337512399E-2</v>
       </c>
       <c r="K7">
-        <v>1.9497054146433698E-2</v>
+        <v>1.8007842340642399E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1261,7 +1260,7 @@
         <v>2.0027682550878799E-2</v>
       </c>
       <c r="K8">
-        <v>1.7027451835030599E-2</v>
+        <v>1.25191593521696E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1299,7 +1298,7 @@
         <v>3.10811328999098E-2</v>
       </c>
       <c r="K9">
-        <v>2.7077020959547199E-2</v>
+        <v>3.6430158070262699E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1337,7 +1336,7 @@
         <v>2.5629882786097902E-2</v>
       </c>
       <c r="K10">
-        <v>2.23884901661589E-2</v>
+        <v>3.5454411649244802E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1375,7 +1374,7 @@
         <v>2.0846050493712999E-2</v>
       </c>
       <c r="K11">
-        <v>1.78115698241143E-2</v>
+        <v>1.95213978432168E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1413,7 +1412,7 @@
         <v>2.08001625679884E-2</v>
       </c>
       <c r="K12">
-        <v>1.7763792191371999E-2</v>
+        <v>2.27747601987096E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1451,7 +1450,7 @@
         <v>1.4398235497510301E-2</v>
       </c>
       <c r="K13">
-        <v>1.26331593441401E-2</v>
+        <v>1.9113280174829601E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1489,7 +1488,7 @@
         <v>2.0863275011290199E-2</v>
       </c>
       <c r="K14">
-        <v>1.7928882570690901E-2</v>
+        <v>2.3558842537686601E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1527,7 +1526,7 @@
         <v>2.0864065457525501E-2</v>
       </c>
       <c r="K15">
-        <v>1.787647094438E-2</v>
+        <v>2.3661793561490698E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1565,7 +1564,7 @@
         <v>1.9491736482847001E-2</v>
       </c>
       <c r="K16">
-        <v>1.67759820183076E-2</v>
+        <v>1.6900156538175301E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1603,7 +1602,7 @@
         <v>1.9343958223979801E-2</v>
       </c>
       <c r="K17">
-        <v>1.6636933592688599E-2</v>
+        <v>1.6592250857970399E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1641,7 +1640,7 @@
         <v>2.1590240253621801E-2</v>
       </c>
       <c r="K18">
-        <v>1.8503232597537299E-2</v>
+        <v>1.9372748965632699E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1679,7 +1678,7 @@
         <v>1.8597868452243801E-2</v>
       </c>
       <c r="K19">
-        <v>1.5962944271192998E-2</v>
+        <v>1.41646364555408E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1717,7 +1716,7 @@
         <v>2.1072227982379999E-2</v>
       </c>
       <c r="K20">
-        <v>1.80837819568039E-2</v>
+        <v>1.6497364572940899E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1755,7 +1754,7 @@
         <v>1.49669395613433E-2</v>
       </c>
       <c r="K21">
-        <v>1.2990116715711E-2</v>
+        <v>1.6180441515760099E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1793,7 +1792,7 @@
         <v>1.8618671040685202E-2</v>
       </c>
       <c r="K22">
-        <v>1.6186881981532401E-2</v>
+        <v>1.7186838794445299E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1831,7 +1830,7 @@
         <v>1.98120910807792E-2</v>
       </c>
       <c r="K23">
-        <v>1.6986677196645698E-2</v>
+        <v>1.57862964623772E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1869,7 +1868,7 @@
         <v>1.77459679980351E-2</v>
       </c>
       <c r="K24">
-        <v>1.5169810608047601E-2</v>
+        <v>1.4249006850150501E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1907,7 +1906,7 @@
         <v>1.9521516376903799E-2</v>
       </c>
       <c r="K25">
-        <v>1.6780821127860598E-2</v>
+        <v>1.33536532826741E-3</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1945,7 +1944,7 @@
         <v>1.8557744181900999E-2</v>
       </c>
       <c r="K26">
-        <v>1.6124853180194399E-2</v>
+        <v>1.2404072203839899E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1983,7 +1982,7 @@
         <v>2.14245768735324E-2</v>
       </c>
       <c r="K27">
-        <v>1.83577626639604E-2</v>
+        <v>1.40724646034208E-3</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2021,7 +2020,7 @@
         <v>2.1383498945623001E-2</v>
       </c>
       <c r="K28">
-        <v>1.85352497042959E-2</v>
+        <v>1.68138290333803E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2059,7 +2058,7 @@
         <v>1.8547205930863699E-2</v>
       </c>
       <c r="K29">
-        <v>1.5968850008669901E-2</v>
+        <v>1.38468068875193E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2097,7 +2096,7 @@
         <v>2.2306888108173901E-2</v>
       </c>
       <c r="K30">
-        <v>1.9086855175004601E-2</v>
+        <v>1.5175238350445201E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2135,7 +2134,7 @@
         <v>1.9044622299234398E-2</v>
       </c>
       <c r="K31">
-        <v>1.6348329652296101E-2</v>
+        <v>1.3409876962956499E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2173,7 +2172,7 @@
         <v>1.79360875647104E-2</v>
       </c>
       <c r="K32">
-        <v>1.55111099898654E-2</v>
+        <v>1.4167249987181499E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2211,7 +2210,7 @@
         <v>2.0388873574890901E-2</v>
       </c>
       <c r="K33">
-        <v>1.7812882469548499E-2</v>
+        <v>2.74523745133722E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2249,7 +2248,7 @@
         <v>1.9762142038627702E-2</v>
       </c>
       <c r="K34">
-        <v>1.7456841036209699E-2</v>
+        <v>4.2972817950856701E-3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2287,7 +2286,7 @@
         <v>2.15767509564244E-2</v>
       </c>
       <c r="K35">
-        <v>1.83808985511188E-2</v>
+        <v>1.75572519548022E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2325,7 +2324,7 @@
         <v>1.8828342627028101E-2</v>
       </c>
       <c r="K36">
-        <v>1.5851188368618999E-2</v>
+        <v>1.8798553581876899E-3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2363,7 +2362,7 @@
         <v>1.4540329084722E-2</v>
       </c>
       <c r="K37">
-        <v>1.27514389867749E-2</v>
+        <v>1.7955699080202999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2401,7 +2400,7 @@
         <v>1.29533520923539E-2</v>
       </c>
       <c r="K38">
-        <v>1.12136558388193E-2</v>
+        <v>1.0790773736108199E-3</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2439,7 +2438,7 @@
         <v>1.75879362790958E-2</v>
       </c>
       <c r="K39">
-        <v>1.5265510922608101E-2</v>
+        <v>1.9345877595192201E-3</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2477,7 +2476,7 @@
         <v>2.5814482862560401E-2</v>
       </c>
       <c r="K40">
-        <v>2.31476903093988E-2</v>
+        <v>4.6287374670973798E-3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2515,7 +2514,7 @@
         <v>1.1666275279619101E-2</v>
       </c>
       <c r="K41">
-        <v>1.0022645262894101E-2</v>
+        <v>1.3904960718775501E-3</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2553,7 +2552,7 @@
         <v>1.52385371840597E-2</v>
       </c>
       <c r="K42">
-        <v>1.3342580396579901E-2</v>
+        <v>1.7496197861422401E-3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2591,7 +2590,7 @@
         <v>2.1459441849032399E-2</v>
       </c>
       <c r="K43">
-        <v>1.8262056685706698E-2</v>
+        <v>2.1236754955568102E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2629,7 +2628,7 @@
         <v>2.13882714739764E-2</v>
       </c>
       <c r="K44">
-        <v>1.8076222986017899E-2</v>
+        <v>2.0464311437013898E-3</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2667,7 +2666,7 @@
         <v>1.8897886423128601E-2</v>
       </c>
       <c r="K45">
-        <v>1.62831465201617E-2</v>
+        <v>2.2346344298592E-3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2705,7 +2704,7 @@
         <v>1.7007339964915099E-2</v>
       </c>
       <c r="K46">
-        <v>1.49343323490098E-2</v>
+        <v>2.0114509553836799E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2743,7 +2742,7 @@
         <v>1.0205429718396899E-2</v>
       </c>
       <c r="K47">
-        <v>8.8235328598455197E-3</v>
+        <v>8.6683794872662804E-4</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2781,7 +2780,7 @@
         <v>1.1845372892374501E-2</v>
       </c>
       <c r="K48">
-        <v>1.03100870337964E-2</v>
+        <v>1.824473229162E-3</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2819,7 +2818,7 @@
         <v>1.6398034800946499E-2</v>
       </c>
       <c r="K49">
-        <v>1.41202092598389E-2</v>
+        <v>1.2798722421446401E-3</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2857,7 +2856,7 @@
         <v>1.7628474371058099E-2</v>
       </c>
       <c r="K50">
-        <v>1.51431741156005E-2</v>
+        <v>1.9774008415486899E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2895,7 +2894,7 @@
         <v>1.98323171625743E-2</v>
       </c>
       <c r="K51">
-        <v>1.71123494638242E-2</v>
+        <v>2.2577560325177E-3</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2933,7 +2932,7 @@
         <v>2.0842690533196599E-2</v>
       </c>
       <c r="K52">
-        <v>1.7978368758742501E-2</v>
+        <v>1.9729972329236602E-3</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2971,7 +2970,7 @@
         <v>1.6067541909891899E-2</v>
       </c>
       <c r="K53">
-        <v>1.41255956472928E-2</v>
+        <v>1.9101191092301001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3009,7 +3008,7 @@
         <v>2.1683046074547199E-2</v>
       </c>
       <c r="K54">
-        <v>1.87242636267092E-2</v>
+        <v>2.9793278152848799E-3</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3047,7 +3046,7 @@
         <v>2.1454274089577698E-2</v>
       </c>
       <c r="K55">
-        <v>1.8598485922043599E-2</v>
+        <v>3.04300884825307E-3</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3085,7 +3084,7 @@
         <v>2.4377341292229501E-2</v>
       </c>
       <c r="K56">
-        <v>2.1036167748640699E-2</v>
+        <v>2.7148706230627801E-3</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3123,7 +3122,7 @@
         <v>2.45011052210936E-2</v>
       </c>
       <c r="K57">
-        <v>2.1198398063603401E-2</v>
+        <v>3.1188158558069601E-3</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3161,7 +3160,7 @@
         <v>1.7374261295683601E-2</v>
       </c>
       <c r="K58">
-        <v>1.52416193867695E-2</v>
+        <v>2.4451080222918299E-3</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3199,7 +3198,7 @@
         <v>1.9911433434783899E-2</v>
       </c>
       <c r="K59">
-        <v>1.7140046712463601E-2</v>
+        <v>2.9920474743505999E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3237,7 +3236,7 @@
         <v>1.9270460406322E-2</v>
       </c>
       <c r="K60">
-        <v>1.6702513764054201E-2</v>
+        <v>2.1153899045647201E-3</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3275,7 +3274,7 @@
         <v>2.2428586616458999E-2</v>
       </c>
       <c r="K61">
-        <v>1.9587182287255402E-2</v>
+        <v>2.8510012278652498E-3</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3313,7 +3312,7 @@
         <v>1.3769109524591301E-2</v>
       </c>
       <c r="K62">
-        <v>1.20888518440348E-2</v>
+        <v>1.24558950279848E-3</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3351,7 +3350,7 @@
         <v>1.45688424392653E-2</v>
       </c>
       <c r="K63">
-        <v>1.2900142367668699E-2</v>
+        <v>1.6410259170465901E-3</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3389,7 +3388,7 @@
         <v>2.4229559182244301E-2</v>
       </c>
       <c r="K64">
-        <v>2.1179909911163999E-2</v>
+        <v>3.3041094632767802E-3</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3427,7 +3426,7 @@
         <v>2.22349753983738E-2</v>
       </c>
       <c r="K65">
-        <v>1.9446692620331298E-2</v>
+        <v>3.1719483235937598E-3</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3465,7 +3464,7 @@
         <v>1.8798523543458699E-2</v>
       </c>
       <c r="K66">
-        <v>1.6228645352372499E-2</v>
+        <v>2.4088111155165198E-3</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3503,7 +3502,7 @@
         <v>2.1426401766426999E-2</v>
       </c>
       <c r="K67">
-        <v>1.87453853769349E-2</v>
+        <v>2.6542955167628401E-3</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3541,7 +3540,7 @@
         <v>1.7523318177235198E-2</v>
       </c>
       <c r="K68">
-        <v>1.51164319208512E-2</v>
+        <v>2.1405706438753298E-3</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3579,7 +3578,7 @@
         <v>1.4873174718330599E-2</v>
       </c>
       <c r="K69">
-        <v>1.3086312528069299E-2</v>
+        <v>2.1081768731753899E-3</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3617,7 +3616,7 @@
         <v>1.93177947973339E-2</v>
       </c>
       <c r="K70">
-        <v>1.6790916097665799E-2</v>
+        <v>1.87205750486137E-3</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3655,7 +3654,7 @@
         <v>1.97517677406568E-2</v>
       </c>
       <c r="K71">
-        <v>1.7136207043681202E-2</v>
+        <v>2.4344223769726101E-3</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3693,7 +3692,7 @@
         <v>1.74992060579129E-2</v>
       </c>
       <c r="K72">
-        <v>1.522458642695E-2</v>
+        <v>1.86325824592621E-3</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3731,7 +3730,7 @@
         <v>2.3090785323126702E-2</v>
       </c>
       <c r="K73">
-        <v>2.0034817536532801E-2</v>
+        <v>3.0674987099628898E-3</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3769,7 +3768,7 @@
         <v>2.0655241922009401E-2</v>
       </c>
       <c r="K74">
-        <v>1.79164081987488E-2</v>
+        <v>2.7678828122651598E-3</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3807,7 +3806,7 @@
         <v>1.79993222756787E-2</v>
       </c>
       <c r="K75">
-        <v>1.58865543205511E-2</v>
+        <v>2.7187748367629499E-3</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3845,7 +3844,7 @@
         <v>1.65987717138169E-2</v>
       </c>
       <c r="K76">
-        <v>1.4356846793185199E-2</v>
+        <v>1.79728790987948E-3</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3883,7 +3882,7 @@
         <v>1.6142187528967199E-2</v>
       </c>
       <c r="K77">
-        <v>1.4023920474355399E-2</v>
+        <v>1.8393437699944701E-3</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3921,7 +3920,7 @@
         <v>1.9020838920485401E-2</v>
       </c>
       <c r="K78">
-        <v>1.6725960629306199E-2</v>
+        <v>4.0222618685700502E-3</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3959,7 +3958,7 @@
         <v>1.8110323823511999E-2</v>
       </c>
       <c r="K79">
-        <v>1.6013024010804799E-2</v>
+        <v>2.2977680110193399E-3</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3997,7 +3996,7 @@
         <v>2.24241528240323E-2</v>
       </c>
       <c r="K80">
-        <v>1.96796447020482E-2</v>
+        <v>3.11318250584359E-3</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4035,7 +4034,7 @@
         <v>2.5426372195669199E-2</v>
       </c>
       <c r="K81">
-        <v>2.21184166167201E-2</v>
+        <v>3.7680696234718199E-3</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4073,7 +4072,7 @@
         <v>2.3153906655481098E-2</v>
       </c>
       <c r="K82">
-        <v>2.0125824722540799E-2</v>
+        <v>2.6636871874945599E-3</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4111,7 +4110,7 @@
         <v>2.12689546431515E-2</v>
       </c>
       <c r="K83">
-        <v>1.8553126605239199E-2</v>
+        <v>2.1724133749920602E-3</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4149,7 +4148,7 @@
         <v>1.28484687968532E-2</v>
       </c>
       <c r="K84">
-        <v>1.12407585469255E-2</v>
+        <v>1.2395284579149999E-3</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4187,7 +4186,7 @@
         <v>1.7404686734587799E-2</v>
       </c>
       <c r="K85">
-        <v>1.5153128624755201E-2</v>
+        <v>1.69293896115063E-3</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4225,7 +4224,7 @@
         <v>1.7413792210147602E-2</v>
       </c>
       <c r="K86">
-        <v>1.50727133782134E-2</v>
+        <v>1.67373669353275E-3</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4263,7 +4262,7 @@
         <v>2.6103481371628601E-2</v>
       </c>
       <c r="K87">
-        <v>2.2694069896907299E-2</v>
+        <v>3.2496648334157702E-3</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4301,7 +4300,7 @@
         <v>2.7878291460513901E-2</v>
       </c>
       <c r="K88">
-        <v>2.4682599108672001E-2</v>
+        <v>5.2674177969941503E-3</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4339,7 +4338,7 @@
         <v>2.4742980668082899E-2</v>
       </c>
       <c r="K89">
-        <v>2.1802847116326799E-2</v>
+        <v>4.0055200060356297E-3</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4377,7 +4376,7 @@
         <v>1.7843417529930398E-2</v>
       </c>
       <c r="K90">
-        <v>1.55877451957976E-2</v>
+        <v>2.2075778027744E-3</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4415,7 +4414,7 @@
         <v>2.23674973711303E-2</v>
       </c>
       <c r="K91">
-        <v>1.9468117884445E-2</v>
+        <v>2.99184032070955E-3</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4453,7 +4452,7 @@
         <v>1.75698794583144E-2</v>
       </c>
       <c r="K92">
-        <v>1.5335025123172599E-2</v>
+        <v>1.9662586781774602E-3</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4491,7 +4490,7 @@
         <v>1.54124175464205E-2</v>
       </c>
       <c r="K93">
-        <v>1.3574387357947099E-2</v>
+        <v>1.75427808663334E-3</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4529,7 +4528,7 @@
         <v>2.12009016193292E-2</v>
       </c>
       <c r="K94">
-        <v>1.83469946989782E-2</v>
+        <v>2.5903829962155502E-3</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4567,7 +4566,7 @@
         <v>2.0462407017058301E-2</v>
       </c>
       <c r="K95">
-        <v>1.7695482829845701E-2</v>
+        <v>2.5573272009614301E-3</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4605,7 +4604,7 @@
         <v>2.2422357199830201E-2</v>
       </c>
       <c r="K96">
-        <v>1.9405112126700399E-2</v>
+        <v>2.5917971974469501E-3</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4643,7 +4642,7 @@
         <v>2.4293693841515598E-2</v>
       </c>
       <c r="K97">
-        <v>2.0979826775563901E-2</v>
+        <v>2.4572214247651201E-3</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4681,7 +4680,7 @@
         <v>2.1211601377862498E-2</v>
       </c>
       <c r="K98">
-        <v>1.8407860026115001E-2</v>
+        <v>2.9455665199934599E-3</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4719,7 +4718,7 @@
         <v>1.9058464707291702E-2</v>
       </c>
       <c r="K99">
-        <v>1.6004840148414301E-2</v>
+        <v>2.0477530455583698E-3</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4757,7 +4756,7 @@
         <v>1.65413872072258E-2</v>
       </c>
       <c r="K100">
-        <v>1.4447122941058399E-2</v>
+        <v>2.32879046968873E-3</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4795,7 +4794,7 @@
         <v>1.2896340096516501E-2</v>
       </c>
       <c r="K101">
-        <v>1.1275413753751099E-2</v>
+        <v>1.6526764994326301E-3</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4833,7 +4832,7 @@
         <v>2.2035999876794801E-2</v>
       </c>
       <c r="K102">
-        <v>1.9016608252724099E-2</v>
+        <v>2.7524582275087299E-3</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4871,7 +4870,7 @@
         <v>2.0086628083469098E-2</v>
       </c>
       <c r="K103">
-        <v>1.73342691456814E-2</v>
+        <v>2.5905378776206502E-3</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4909,7 +4908,7 @@
         <v>1.45052918439143E-2</v>
       </c>
       <c r="K104">
-        <v>1.2738847607021301E-2</v>
+        <v>1.75801375154807E-3</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4947,7 +4946,7 @@
         <v>1.4957100888665399E-2</v>
       </c>
       <c r="K105">
-        <v>1.3130254029574E-2</v>
+        <v>1.89641821197057E-3</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4985,7 +4984,7 @@
         <v>1.92660282926411E-2</v>
       </c>
       <c r="K106">
-        <v>1.6580689255416201E-2</v>
+        <v>1.65285372358029E-3</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5023,7 +5022,7 @@
         <v>1.4108110155749001E-2</v>
       </c>
       <c r="K107">
-        <v>1.2162410487721299E-2</v>
+        <v>1.3817106298537199E-3</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5061,7 +5060,7 @@
         <v>2.1272736461528701E-2</v>
       </c>
       <c r="K108">
-        <v>1.8406015619679798E-2</v>
+        <v>2.23599729905157E-3</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5099,7 +5098,7 @@
         <v>2.1882730232890901E-2</v>
       </c>
       <c r="K109">
-        <v>1.8702045970397901E-2</v>
+        <v>2.38651521818574E-3</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5137,7 +5136,7 @@
         <v>1.9693971744063399E-2</v>
       </c>
       <c r="K110">
-        <v>1.6933761874397699E-2</v>
+        <v>2.6200634849442598E-3</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5175,7 +5174,7 @@
         <v>2.2018425199599501E-2</v>
       </c>
       <c r="K111">
-        <v>1.9034107416589501E-2</v>
+        <v>2.6223649302711699E-3</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5213,7 +5212,7 @@
         <v>2.1429838274076199E-2</v>
       </c>
       <c r="K112">
-        <v>1.84786003492395E-2</v>
+        <v>2.36562535943589E-3</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5251,7 +5250,7 @@
         <v>1.3573515223095699E-2</v>
       </c>
       <c r="K113">
-        <v>1.17635960859991E-2</v>
+        <v>1.7583739976820599E-3</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5289,7 +5288,7 @@
         <v>1.99000337875163E-2</v>
       </c>
       <c r="K114">
-        <v>1.69785684603686E-2</v>
+        <v>2.1680377933031999E-3</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5327,7 +5326,7 @@
         <v>1.37220652516713E-2</v>
       </c>
       <c r="K115">
-        <v>1.20237119629756E-2</v>
+        <v>1.7436866310001999E-3</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5365,7 +5364,7 @@
         <v>2.17279564071075E-2</v>
       </c>
       <c r="K116">
-        <v>1.8641768991631599E-2</v>
+        <v>2.3649848265379801E-3</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5403,7 +5402,7 @@
         <v>2.26951515378465E-2</v>
       </c>
       <c r="K117">
-        <v>1.9590442561484699E-2</v>
+        <v>2.7521925425754499E-3</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -5441,7 +5440,7 @@
         <v>2.1258622605411701E-2</v>
       </c>
       <c r="K118">
-        <v>1.8509397078037199E-2</v>
+        <v>2.3176926316110301E-3</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5479,7 +5478,7 @@
         <v>2.1552998293090701E-2</v>
       </c>
       <c r="K119">
-        <v>1.8961060844940598E-2</v>
+        <v>2.6583133928241198E-3</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5517,7 +5516,7 @@
         <v>2.0066382411243599E-2</v>
       </c>
       <c r="K120">
-        <v>1.7645765420058902E-2</v>
+        <v>2.91038535586804E-3</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5555,7 +5554,7 @@
         <v>1.84095869252426E-2</v>
       </c>
       <c r="K121">
-        <v>1.5843652939506299E-2</v>
+        <v>1.6333485041133799E-3</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5593,7 +5592,7 @@
         <v>1.34238939603271E-2</v>
       </c>
       <c r="K122">
-        <v>1.15857614896462E-2</v>
+        <v>1.1520584936853301E-3</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5631,7 +5630,7 @@
         <v>1.90545405361165E-2</v>
       </c>
       <c r="K123">
-        <v>1.6796873786275899E-2</v>
+        <v>2.9222469758202999E-3</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5669,7 +5668,7 @@
         <v>2.0650301858930201E-2</v>
       </c>
       <c r="K124">
-        <v>1.7857896235433001E-2</v>
+        <v>2.0047612890418702E-3</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5707,7 +5706,7 @@
         <v>1.8967226470814402E-2</v>
       </c>
       <c r="K125">
-        <v>1.6763358177392398E-2</v>
+        <v>3.52388931384755E-3</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5745,7 +5744,7 @@
         <v>2.2433284335392101E-2</v>
       </c>
       <c r="K126">
-        <v>1.9492667367835899E-2</v>
+        <v>2.17055161661488E-3</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5783,7 +5782,7 @@
         <v>2.2455678367984601E-2</v>
       </c>
       <c r="K127">
-        <v>1.9500761310728101E-2</v>
+        <v>2.5312317376415699E-3</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5821,7 +5820,7 @@
         <v>2.87757621337889E-2</v>
       </c>
       <c r="K128">
-        <v>2.4276818360382299E-2</v>
+        <v>4.0669978062649404E-3</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5859,7 +5858,7 @@
         <v>2.51681245883448E-2</v>
       </c>
       <c r="K129">
-        <v>2.1445608327432999E-2</v>
+        <v>2.9121999200374601E-3</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5897,7 +5896,7 @@
         <v>1.4807369293199001E-2</v>
       </c>
       <c r="K130">
-        <v>1.2833631483080501E-2</v>
+        <v>1.61825797164784E-3</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5935,7 +5934,7 @@
         <v>2.6886497318539999E-2</v>
       </c>
       <c r="K131">
-        <v>2.3879479350561401E-2</v>
+        <v>5.53895919772568E-3</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5973,7 +5972,7 @@
         <v>2.7480082628353001E-2</v>
       </c>
       <c r="K132">
-        <v>2.4222994071548501E-2</v>
+        <v>5.2874066207456404E-3</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6011,7 +6010,7 @@
         <v>2.5742363509975399E-2</v>
       </c>
       <c r="K133">
-        <v>2.26536208997456E-2</v>
+        <v>5.0333721571194099E-3</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6049,7 +6048,7 @@
         <v>3.28188873806027E-2</v>
       </c>
       <c r="K134">
-        <v>2.8861954709583599E-2</v>
+        <v>5.2099871422946198E-3</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6087,7 +6086,7 @@
         <v>3.1128197600695701E-2</v>
       </c>
       <c r="K135">
-        <v>2.7463482916372E-2</v>
+        <v>4.9186469384726803E-3</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6125,7 +6124,7 @@
         <v>2.9397121599068699E-2</v>
       </c>
       <c r="K136">
-        <v>2.5830728170614398E-2</v>
+        <v>4.7794397411544997E-3</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6163,7 +6162,7 @@
         <v>3.5175419584234202E-2</v>
       </c>
       <c r="K137">
-        <v>3.1165793990934498E-2</v>
+        <v>6.3605602620288304E-3</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6201,7 +6200,7 @@
         <v>1.98456232729123E-2</v>
       </c>
       <c r="K138">
-        <v>1.7349844523447799E-2</v>
+        <v>2.7206011012123402E-3</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6239,7 +6238,7 @@
         <v>1.6308243841337999E-2</v>
       </c>
       <c r="K139">
-        <v>1.42848692092885E-2</v>
+        <v>2.03001075895021E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6277,7 +6276,7 @@
         <v>2.8439920213214301E-2</v>
       </c>
       <c r="K140">
-        <v>2.4952104448001E-2</v>
+        <v>4.6887851221545998E-3</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6315,7 +6314,7 @@
         <v>2.7327484787311101E-2</v>
       </c>
       <c r="K141">
-        <v>2.41043832750166E-2</v>
+        <v>4.5572913396745096E-3</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6353,7 +6352,7 @@
         <v>2.8593964344570202E-2</v>
       </c>
       <c r="K142">
-        <v>2.4965263597012802E-2</v>
+        <v>4.5874031917162604E-3</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6391,7 +6390,7 @@
         <v>2.6745782972014999E-2</v>
       </c>
       <c r="K143">
-        <v>2.3319536587530401E-2</v>
+        <v>4.2366899338641502E-3</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -6429,7 +6428,7 @@
         <v>2.8920770860681101E-2</v>
       </c>
       <c r="K144">
-        <v>2.5254925658432702E-2</v>
+        <v>4.4067645829504497E-3</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -6467,7 +6466,7 @@
         <v>2.5414546843212701E-2</v>
       </c>
       <c r="K145">
-        <v>2.1978898884901801E-2</v>
+        <v>3.5803999828298398E-3</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6505,7 +6504,7 @@
         <v>1.7304106593801001E-2</v>
       </c>
       <c r="K146">
-        <v>1.5064359748722901E-2</v>
+        <v>2.14824235863948E-3</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -6543,7 +6542,7 @@
         <v>1.5787549322441401E-2</v>
       </c>
       <c r="K147">
-        <v>1.39084350049573E-2</v>
+        <v>2.3664665125553799E-3</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6581,7 +6580,7 @@
         <v>2.60009019825733E-2</v>
       </c>
       <c r="K148">
-        <v>2.2312178702873501E-2</v>
+        <v>4.0759888256797598E-3</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6619,7 +6618,7 @@
         <v>1.7234743658268398E-2</v>
       </c>
       <c r="K149">
-        <v>1.49398458498642E-2</v>
+        <v>2.3179829018212298E-3</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -6657,7 +6656,7 @@
         <v>2.1760004995526001E-2</v>
       </c>
       <c r="K150">
-        <v>1.8769477943492301E-2</v>
+        <v>2.7084811618199702E-3</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6695,7 +6694,7 @@
         <v>2.65126059158836E-2</v>
       </c>
       <c r="K151">
-        <v>2.2915572436855498E-2</v>
+        <v>3.99878327981717E-3</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -6733,7 +6732,7 @@
         <v>1.7998389496397201E-2</v>
       </c>
       <c r="K152">
-        <v>1.5604484152078201E-2</v>
+        <v>2.4888048947511901E-3</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6771,7 +6770,7 @@
         <v>2.4737894845188801E-2</v>
       </c>
       <c r="K153">
-        <v>2.1336615757313399E-2</v>
+        <v>3.85412676216216E-3</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -6809,7 +6808,7 @@
         <v>1.7440763147009999E-2</v>
       </c>
       <c r="K154">
-        <v>1.50901714551011E-2</v>
+        <v>2.5075288145543499E-3</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -6847,7 +6846,7 @@
         <v>2.54547101591583E-2</v>
       </c>
       <c r="K155">
-        <v>2.2534595026379899E-2</v>
+        <v>3.5675173059498901E-3</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -6885,7 +6884,7 @@
         <v>2.2484985717510699E-2</v>
       </c>
       <c r="K156">
-        <v>1.9654944820364301E-2</v>
+        <v>3.1892894715110998E-3</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6923,7 +6922,7 @@
         <v>3.4540680190556901E-2</v>
       </c>
       <c r="K157">
-        <v>3.0490812332198799E-2</v>
+        <v>6.1893499915593904E-3</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -6961,7 +6960,7 @@
         <v>1.9151690650474201E-2</v>
       </c>
       <c r="K158">
-        <v>1.6717840225878602E-2</v>
+        <v>2.7894865915564998E-3</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6999,7 +6998,7 @@
         <v>2.72588123868839E-2</v>
       </c>
       <c r="K159">
-        <v>2.40522165657692E-2</v>
+        <v>4.53943894545711E-3</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7037,7 +7036,7 @@
         <v>3.0406739856116201E-2</v>
       </c>
       <c r="K160">
-        <v>2.6887461574939101E-2</v>
+        <v>5.3804504207225004E-3</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7075,7 +7074,7 @@
         <v>1.96526698160462E-2</v>
       </c>
       <c r="K161">
-        <v>1.7206821157603299E-2</v>
+        <v>3.06685550557161E-3</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7113,7 +7112,7 @@
         <v>2.7522392690627302E-2</v>
       </c>
       <c r="K162">
-        <v>2.4037300168467401E-2</v>
+        <v>4.18696041473439E-3</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7151,7 +7150,7 @@
         <v>2.4077323530943801E-2</v>
       </c>
       <c r="K163">
-        <v>2.1018937748431402E-2</v>
+        <v>3.4506554486583001E-3</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7189,7 +7188,7 @@
         <v>2.5148904976960301E-2</v>
       </c>
       <c r="K164">
-        <v>2.1934954423907398E-2</v>
+        <v>3.9337602879716098E-3</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7227,7 +7226,7 @@
         <v>2.5744583087964099E-2</v>
       </c>
       <c r="K165">
-        <v>2.2477989569640401E-2</v>
+        <v>4.3741945390988798E-3</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7265,7 +7264,7 @@
         <v>1.94706413871912E-2</v>
       </c>
       <c r="K166">
-        <v>1.7072339079858199E-2</v>
+        <v>3.71699389882781E-3</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7303,7 +7302,7 @@
         <v>1.46216086034719E-2</v>
       </c>
       <c r="K167">
-        <v>1.27249639769542E-2</v>
+        <v>1.6525406154387801E-3</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7341,7 +7340,7 @@
         <v>3.1553672478697503E-2</v>
       </c>
       <c r="K168">
-        <v>2.7893150043600299E-2</v>
+        <v>5.1899015621618503E-3</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7379,7 +7378,7 @@
         <v>2.60027353667888E-2</v>
       </c>
       <c r="K169">
-        <v>2.2518803544905298E-2</v>
+        <v>2.62570822674243E-3</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7417,7 +7416,7 @@
         <v>2.6657107881071802E-2</v>
       </c>
       <c r="K170">
-        <v>2.3167292840793899E-2</v>
+        <v>2.6413255777415099E-3</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7455,7 +7454,7 @@
         <v>2.28560717317213E-2</v>
       </c>
       <c r="K171">
-        <v>1.9869295362032E-2</v>
+        <v>2.1584915418803698E-3</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7493,7 +7492,7 @@
         <v>2.2720173176007101E-2</v>
       </c>
       <c r="K172">
-        <v>1.9855735555624001E-2</v>
+        <v>1.66276071575348E-3</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -7531,7 +7530,7 @@
         <v>2.6227843081083901E-2</v>
       </c>
       <c r="K173">
-        <v>2.27416060111825E-2</v>
+        <v>2.7427745048437999E-3</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -7569,7 +7568,7 @@
         <v>2.4355703506406701E-2</v>
       </c>
       <c r="K174">
-        <v>2.0892821873344201E-2</v>
+        <v>2.3869923648715198E-3</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -7607,7 +7606,7 @@
         <v>2.5798617229762798E-2</v>
       </c>
       <c r="K175">
-        <v>2.25674777800377E-2</v>
+        <v>3.1622220039792398E-3</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -7645,7 +7644,7 @@
         <v>2.35250909257755E-2</v>
       </c>
       <c r="K176">
-        <v>2.0376548103587099E-2</v>
+        <v>2.4209048773299398E-3</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7683,7 +7682,7 @@
         <v>1.81111268427743E-2</v>
       </c>
       <c r="K177">
-        <v>1.57340170280241E-2</v>
+        <v>1.5521375614600901E-3</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -7721,7 +7720,7 @@
         <v>2.2271098564491498E-2</v>
       </c>
       <c r="K178">
-        <v>1.9571600898535501E-2</v>
+        <v>2.3727296215051599E-3</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -7759,7 +7758,7 @@
         <v>1.8479246808060599E-2</v>
       </c>
       <c r="K179">
-        <v>1.5990167125061801E-2</v>
+        <v>1.6359213454685999E-3</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -7797,7 +7796,7 @@
         <v>2.1933831667537498E-2</v>
       </c>
       <c r="K180">
-        <v>1.92707906914674E-2</v>
+        <v>2.1219737227122499E-3</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7835,7 +7834,7 @@
         <v>2.4538566776022799E-2</v>
       </c>
       <c r="K181">
-        <v>2.1186891521730401E-2</v>
+        <v>2.54443819722904E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23974D-39DB-4C7B-B6A6-3F2A845E9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D095AA-A7FF-405E-BD2D-5457D0AC1D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="624" windowWidth="21360" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>TARA_X000000368</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>DNA_sect_CAZ</t>
+  </si>
+  <si>
+    <t>DNA_peptidase</t>
+  </si>
+  <si>
+    <t>DNA_sect_pep</t>
   </si>
 </sst>
 </file>
@@ -943,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -962,7 +968,7 @@
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
+    <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -996,8 +1002,14 @@
       <c r="K1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1034,8 +1046,14 @@
       <c r="K2">
         <v>2.56248619083885E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>3.8437106589524601E-2</v>
+      </c>
+      <c r="M2">
+        <v>8.3316657947394099E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1072,8 +1090,14 @@
       <c r="K3">
         <v>3.0925117314035099E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>4.0307176274845799E-2</v>
+      </c>
+      <c r="M3">
+        <v>8.9464381510720205E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1110,8 +1134,14 @@
       <c r="K4">
         <v>3.5566305304910902E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>3.86280959751455E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.0161982549717801E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1148,8 +1178,14 @@
       <c r="K5">
         <v>1.02553535976059E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>2.6856325675505499E-2</v>
+      </c>
+      <c r="M5">
+        <v>4.07066236722416E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1222,14 @@
       <c r="K6">
         <v>1.9243435677656199E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>3.5460707952912701E-2</v>
+      </c>
+      <c r="M6">
+        <v>7.6395393154068403E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1266,14 @@
       <c r="K7">
         <v>1.8007842340642399E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>3.5669821242514499E-2</v>
+      </c>
+      <c r="M7">
+        <v>7.0503647795832399E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1262,8 +1310,14 @@
       <c r="K8">
         <v>1.25191593521696E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>3.0258444295056801E-2</v>
+      </c>
+      <c r="M8">
+        <v>4.71794941396971E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1300,8 +1354,14 @@
       <c r="K9">
         <v>3.6430158070262699E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>4.6222620717537799E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.1863482705294401E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1338,8 +1398,14 @@
       <c r="K10">
         <v>3.5454411649244802E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>3.6934049757349499E-2</v>
+      </c>
+      <c r="M10">
+        <v>8.9132156380819592E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1376,8 +1442,14 @@
       <c r="K11">
         <v>1.95213978432168E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>3.4733361694088798E-2</v>
+      </c>
+      <c r="M11">
+        <v>7.7387081043315499E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1414,8 +1486,14 @@
       <c r="K12">
         <v>2.27747601987096E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>3.3956951796825799E-2</v>
+      </c>
+      <c r="M12">
+        <v>7.8670666006048495E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1452,8 +1530,14 @@
       <c r="K13">
         <v>1.9113280174829601E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>2.7726508246430401E-2</v>
+      </c>
+      <c r="M13">
+        <v>6.5399039937055698E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1490,8 +1574,14 @@
       <c r="K14">
         <v>2.3558842537686601E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>3.6335077104417898E-2</v>
+      </c>
+      <c r="M14">
+        <v>8.6882387340151603E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1528,8 +1618,14 @@
       <c r="K15">
         <v>2.3661793561490698E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>3.6053147546787498E-2</v>
+      </c>
+      <c r="M15">
+        <v>8.7915765806195392E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1566,8 +1662,14 @@
       <c r="K16">
         <v>1.6900156538175301E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>3.0597610695263198E-2</v>
+      </c>
+      <c r="M16">
+        <v>5.62977602469035E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1604,8 +1706,14 @@
       <c r="K17">
         <v>1.6592250857970399E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>2.9842164582482001E-2</v>
+      </c>
+      <c r="M17">
+        <v>5.1658595473017604E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1642,8 +1750,14 @@
       <c r="K18">
         <v>1.9372748965632699E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>3.1794812075955498E-2</v>
+      </c>
+      <c r="M18">
+        <v>6.1266955701898898E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1680,8 +1794,14 @@
       <c r="K19">
         <v>1.41646364555408E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>2.9014651171705E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.9387261221818099E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1718,8 +1838,14 @@
       <c r="K20">
         <v>1.6497364572940899E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>3.3932220939926198E-2</v>
+      </c>
+      <c r="M20">
+        <v>6.3845509539485297E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1756,8 +1882,14 @@
       <c r="K21">
         <v>1.6180441515760099E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>2.8095933368715201E-2</v>
+      </c>
+      <c r="M21">
+        <v>6.2543950155829397E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1794,8 +1926,14 @@
       <c r="K22">
         <v>1.7186838794445299E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>3.02683440965681E-2</v>
+      </c>
+      <c r="M22">
+        <v>6.1384882361630397E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1832,8 +1970,14 @@
       <c r="K23">
         <v>1.57862964623772E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>2.9744341077088201E-2</v>
+      </c>
+      <c r="M23">
+        <v>5.9243859739518999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1870,8 +2014,14 @@
       <c r="K24">
         <v>1.4249006850150501E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>2.5347500657914301E-2</v>
+      </c>
+      <c r="M24">
+        <v>4.3165348522356001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1908,8 +2058,14 @@
       <c r="K25">
         <v>1.33536532826741E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>3.0159588081919701E-2</v>
+      </c>
+      <c r="M25">
+        <v>4.7917131072330102E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1946,8 +2102,14 @@
       <c r="K26">
         <v>1.2404072203839899E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>3.0786830227507798E-2</v>
+      </c>
+      <c r="M26">
+        <v>6.0511584784876697E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1984,8 +2146,14 @@
       <c r="K27">
         <v>1.40724646034208E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>3.1847934926133303E-2</v>
+      </c>
+      <c r="M27">
+        <v>4.9451015046818002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2022,8 +2190,14 @@
       <c r="K28">
         <v>1.68138290333803E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>3.3978851293892699E-2</v>
+      </c>
+      <c r="M28">
+        <v>6.8458598250570497E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2060,8 +2234,14 @@
       <c r="K29">
         <v>1.38468068875193E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>3.0853474418609601E-2</v>
+      </c>
+      <c r="M29">
+        <v>6.2598929847232504E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2098,8 +2278,14 @@
       <c r="K30">
         <v>1.5175238350445201E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>3.39216073244097E-2</v>
+      </c>
+      <c r="M30">
+        <v>5.4750877401099299E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2136,8 +2322,14 @@
       <c r="K31">
         <v>1.3409876962956499E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>2.8496185124864501E-2</v>
+      </c>
+      <c r="M31">
+        <v>4.3465749319269702E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2174,8 +2366,14 @@
       <c r="K32">
         <v>1.4167249987181499E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>2.95478537427563E-2</v>
+      </c>
+      <c r="M32">
+        <v>6.3119318926649296E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2212,8 +2410,14 @@
       <c r="K33">
         <v>2.74523745133722E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>4.1764251299440502E-2</v>
+      </c>
+      <c r="M33">
+        <v>1.5555316589937701E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2250,8 +2454,14 @@
       <c r="K34">
         <v>4.2972817950856701E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>3.2158222500444797E-2</v>
+      </c>
+      <c r="M34">
+        <v>1.04419415935627E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2498,14 @@
       <c r="K35">
         <v>1.75572519548022E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>3.3908428310322203E-2</v>
+      </c>
+      <c r="M35">
+        <v>6.6774787097068104E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2326,8 +2542,14 @@
       <c r="K36">
         <v>1.8798553581876899E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>2.9469783222085801E-2</v>
+      </c>
+      <c r="M36">
+        <v>6.3047809094146099E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2586,14 @@
       <c r="K37">
         <v>1.7955699080202999E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>2.84160746165028E-2</v>
+      </c>
+      <c r="M37">
+        <v>6.3141709139210699E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2402,8 +2630,14 @@
       <c r="K38">
         <v>1.0790773736108199E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>1.96231794457381E-2</v>
+      </c>
+      <c r="M38">
+        <v>3.5195232485872099E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2440,8 +2674,14 @@
       <c r="K39">
         <v>1.9345877595192201E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>2.9540786334944599E-2</v>
+      </c>
+      <c r="M39">
+        <v>7.03479020745576E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2478,8 +2718,14 @@
       <c r="K40">
         <v>4.6287374670973798E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>3.7065001413193098E-2</v>
+      </c>
+      <c r="M40">
+        <v>1.2473746440413901E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2516,8 +2762,14 @@
       <c r="K41">
         <v>1.3904960718775501E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>1.83054814645702E-2</v>
+      </c>
+      <c r="M41">
+        <v>4.37609649340786E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2554,8 +2806,14 @@
       <c r="K42">
         <v>1.7496197861422401E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>2.98627774941643E-2</v>
+      </c>
+      <c r="M42">
+        <v>6.5272575138982797E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2592,8 +2850,14 @@
       <c r="K43">
         <v>2.1236754955568102E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>2.8685633982918599E-2</v>
+      </c>
+      <c r="M43">
+        <v>6.1776161216754999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2630,8 +2894,14 @@
       <c r="K44">
         <v>2.0464311437013898E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>2.89751438505873E-2</v>
+      </c>
+      <c r="M44">
+        <v>6.2910285928486197E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2668,8 +2938,14 @@
       <c r="K45">
         <v>2.2346344298592E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>2.83992838671039E-2</v>
+      </c>
+      <c r="M45">
+        <v>6.8383826447054501E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2706,8 +2982,14 @@
       <c r="K46">
         <v>2.0114509553836799E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>2.6024908790981301E-2</v>
+      </c>
+      <c r="M46">
+        <v>6.38954000284697E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2744,8 +3026,14 @@
       <c r="K47">
         <v>8.6683794872662804E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>1.6144798350799301E-2</v>
+      </c>
+      <c r="M47">
+        <v>3.0665442025675999E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2782,8 +3070,14 @@
       <c r="K48">
         <v>1.824473229162E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>1.78521622338264E-2</v>
+      </c>
+      <c r="M48">
+        <v>4.6163597861979301E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2820,8 +3114,14 @@
       <c r="K49">
         <v>1.2798722421446401E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>2.4629207219047499E-2</v>
+      </c>
+      <c r="M49">
+        <v>4.1314424134086397E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2858,8 +3158,14 @@
       <c r="K50">
         <v>1.9774008415486899E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>2.7933876920376199E-2</v>
+      </c>
+      <c r="M50">
+        <v>5.8690046088717297E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2896,8 +3202,14 @@
       <c r="K51">
         <v>2.2577560325177E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>3.3486785841008997E-2</v>
+      </c>
+      <c r="M51">
+        <v>8.1393425725092595E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -2934,8 +3246,14 @@
       <c r="K52">
         <v>1.9729972329236602E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>3.3537190199578903E-2</v>
+      </c>
+      <c r="M52">
+        <v>7.7256792874708302E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -2972,8 +3290,14 @@
       <c r="K53">
         <v>1.9101191092301001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>3.2066030630954402E-2</v>
+      </c>
+      <c r="M53">
+        <v>7.5502597619708E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3010,8 +3334,14 @@
       <c r="K54">
         <v>2.9793278152848799E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>3.5544252718790803E-2</v>
+      </c>
+      <c r="M54">
+        <v>9.6844326430508398E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -3048,8 +3378,14 @@
       <c r="K55">
         <v>3.04300884825307E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>3.4342369352365398E-2</v>
+      </c>
+      <c r="M55">
+        <v>9.4744513388875899E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -3086,8 +3422,14 @@
       <c r="K56">
         <v>2.7148706230627801E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>3.6722480181342998E-2</v>
+      </c>
+      <c r="M56">
+        <v>9.1698474937302096E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -3124,8 +3466,14 @@
       <c r="K57">
         <v>3.1188158558069601E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>4.0600503761446798E-2</v>
+      </c>
+      <c r="M57">
+        <v>9.9481730043812708E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -3162,8 +3510,14 @@
       <c r="K58">
         <v>2.4451080222918299E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>3.2002647212152097E-2</v>
+      </c>
+      <c r="M58">
+        <v>8.3014119167995008E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -3200,8 +3554,14 @@
       <c r="K59">
         <v>2.9920474743505999E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>2.9240910768473599E-2</v>
+      </c>
+      <c r="M59">
+        <v>7.9534159555262902E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -3238,8 +3598,14 @@
       <c r="K60">
         <v>2.1153899045647201E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>3.3728807972256102E-2</v>
+      </c>
+      <c r="M60">
+        <v>7.7262607697775997E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -3276,8 +3642,14 @@
       <c r="K61">
         <v>2.8510012278652498E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>3.4407030557890399E-2</v>
+      </c>
+      <c r="M61">
+        <v>9.2137205279519806E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3314,8 +3686,14 @@
       <c r="K62">
         <v>1.24558950279848E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>2.5728734074101301E-2</v>
+      </c>
+      <c r="M62">
+        <v>4.5717760884355198E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3352,8 +3730,14 @@
       <c r="K63">
         <v>1.6410259170465901E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>2.63079551347059E-2</v>
+      </c>
+      <c r="M63">
+        <v>5.6204617452887996E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3390,8 +3774,14 @@
       <c r="K64">
         <v>3.3041094632767802E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>3.7673123570132298E-2</v>
+      </c>
+      <c r="M64">
+        <v>1.15313739044997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3428,8 +3818,14 @@
       <c r="K65">
         <v>3.1719483235937598E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>3.3698567403086799E-2</v>
+      </c>
+      <c r="M65">
+        <v>1.06631082392396E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3466,8 +3862,14 @@
       <c r="K66">
         <v>2.4088111155165198E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>3.0297047288060701E-2</v>
+      </c>
+      <c r="M66">
+        <v>9.4932282950734095E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3504,8 +3906,14 @@
       <c r="K67">
         <v>2.6542955167628401E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>3.51094099195218E-2</v>
+      </c>
+      <c r="M67">
+        <v>1.15643587700973E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3542,8 +3950,14 @@
       <c r="K68">
         <v>2.1405706438753298E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>2.9397914443190801E-2</v>
+      </c>
+      <c r="M68">
+        <v>8.7580355274833894E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3580,8 +3994,14 @@
       <c r="K69">
         <v>2.1081768731753899E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>2.8063991257634899E-2</v>
+      </c>
+      <c r="M69">
+        <v>7.1377456463740802E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3618,8 +4038,14 @@
       <c r="K70">
         <v>1.87205750486137E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>2.99660518447958E-2</v>
+      </c>
+      <c r="M70">
+        <v>5.690381320548E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -3656,8 +4082,14 @@
       <c r="K71">
         <v>2.4344223769726101E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>3.2654823496197798E-2</v>
+      </c>
+      <c r="M71">
+        <v>7.7993521248993902E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3694,8 +4126,14 @@
       <c r="K72">
         <v>1.86325824592621E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>2.9021987484911499E-2</v>
+      </c>
+      <c r="M72">
+        <v>6.2870650660376099E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3732,8 +4170,14 @@
       <c r="K73">
         <v>3.0674987099628898E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>3.6128081521538999E-2</v>
+      </c>
+      <c r="M73">
+        <v>8.4433694045829392E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -3770,8 +4214,14 @@
       <c r="K74">
         <v>2.7678828122651598E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>3.2652523146291301E-2</v>
+      </c>
+      <c r="M74">
+        <v>7.72936931676051E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -3808,8 +4258,14 @@
       <c r="K75">
         <v>2.7187748367629499E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>3.2558768474367901E-2</v>
+      </c>
+      <c r="M75">
+        <v>8.8810103066433391E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -3846,8 +4302,14 @@
       <c r="K76">
         <v>1.79728790987948E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>2.62980716899151E-2</v>
+      </c>
+      <c r="M76">
+        <v>5.0416144563517999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -3884,8 +4346,14 @@
       <c r="K77">
         <v>1.8393437699944701E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>2.5900104444965499E-2</v>
+      </c>
+      <c r="M77">
+        <v>6.0274657987651201E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -3922,8 +4390,14 @@
       <c r="K78">
         <v>4.0222618685700502E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>3.2985515236838403E-2</v>
+      </c>
+      <c r="M78">
+        <v>9.8310990853929595E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3960,8 +4434,14 @@
       <c r="K79">
         <v>2.2977680110193399E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>3.3322855876399902E-2</v>
+      </c>
+      <c r="M79">
+        <v>8.0297448847907894E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3998,8 +4478,14 @@
       <c r="K80">
         <v>3.11318250584359E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>3.9632229881838801E-2</v>
+      </c>
+      <c r="M80">
+        <v>1.0543374555236599E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4036,8 +4522,14 @@
       <c r="K81">
         <v>3.7680696234718199E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>3.9731778149778102E-2</v>
+      </c>
+      <c r="M81">
+        <v>1.0928790470282701E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4074,8 +4566,14 @@
       <c r="K82">
         <v>2.6636871874945599E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>3.4948672703872301E-2</v>
+      </c>
+      <c r="M82">
+        <v>9.2059805304147008E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -4112,8 +4610,14 @@
       <c r="K83">
         <v>2.1724133749920602E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>3.2443248233743803E-2</v>
+      </c>
+      <c r="M83">
+        <v>6.2231129180221499E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -4150,8 +4654,14 @@
       <c r="K84">
         <v>1.2395284579149999E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>2.7050986337532501E-2</v>
+      </c>
+      <c r="M84">
+        <v>5.4385227612507303E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -4188,8 +4698,14 @@
       <c r="K85">
         <v>1.69293896115063E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>2.75917966340926E-2</v>
+      </c>
+      <c r="M85">
+        <v>5.04918426137163E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -4226,8 +4742,14 @@
       <c r="K86">
         <v>1.67373669353275E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>2.7862350194692E-2</v>
+      </c>
+      <c r="M86">
+        <v>5.7148754998064301E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -4264,8 +4786,14 @@
       <c r="K87">
         <v>3.2496648334157702E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>3.9515202561713203E-2</v>
+      </c>
+      <c r="M87">
+        <v>8.7894288386736602E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -4302,8 +4830,14 @@
       <c r="K88">
         <v>5.2674177969941503E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>4.4042614066619898E-2</v>
+      </c>
+      <c r="M88">
+        <v>1.47702920729193E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -4340,8 +4874,14 @@
       <c r="K89">
         <v>4.0055200060356297E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>3.7916221935526899E-2</v>
+      </c>
+      <c r="M89">
+        <v>1.10533080385079E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4378,8 +4918,14 @@
       <c r="K90">
         <v>2.2075778027744E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>3.2391900907091403E-2</v>
+      </c>
+      <c r="M90">
+        <v>7.93242884639077E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -4416,8 +4962,14 @@
       <c r="K91">
         <v>2.99184032070955E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>3.3516245707581403E-2</v>
+      </c>
+      <c r="M91">
+        <v>7.3728334303028199E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -4454,8 +5006,14 @@
       <c r="K92">
         <v>1.9662586781774602E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>2.8555125635174899E-2</v>
+      </c>
+      <c r="M92">
+        <v>6.2935431595858302E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -4492,8 +5050,14 @@
       <c r="K93">
         <v>1.75427808663334E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>3.0157076081159299E-2</v>
+      </c>
+      <c r="M93">
+        <v>6.6194841726207702E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -4530,8 +5094,14 @@
       <c r="K94">
         <v>2.5903829962155502E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>3.5533759628648201E-2</v>
+      </c>
+      <c r="M94">
+        <v>8.7542524887552504E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -4568,8 +5138,14 @@
       <c r="K95">
         <v>2.5573272009614301E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>3.4987440477042199E-2</v>
+      </c>
+      <c r="M95">
+        <v>9.2661777797429599E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -4606,8 +5182,14 @@
       <c r="K96">
         <v>2.5917971974469501E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>3.6594592755358202E-2</v>
+      </c>
+      <c r="M96">
+        <v>9.4499788481472499E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -4644,8 +5226,14 @@
       <c r="K97">
         <v>2.4572214247651201E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>3.8836136600336302E-2</v>
+      </c>
+      <c r="M97">
+        <v>9.6080612304736603E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4682,8 +5270,14 @@
       <c r="K98">
         <v>2.9455665199934599E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>3.5057462129368701E-2</v>
+      </c>
+      <c r="M98">
+        <v>8.7376318644580894E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -4720,8 +5314,14 @@
       <c r="K99">
         <v>2.0477530455583698E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>3.2571601561914403E-2</v>
+      </c>
+      <c r="M99">
+        <v>7.8134526607806093E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -4758,8 +5358,14 @@
       <c r="K100">
         <v>2.32879046968873E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>3.1280241100798703E-2</v>
+      </c>
+      <c r="M100">
+        <v>7.6834950778595099E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -4796,8 +5402,14 @@
       <c r="K101">
         <v>1.6526764994326301E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>2.6372683872885199E-2</v>
+      </c>
+      <c r="M101">
+        <v>5.7939299953876297E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -4834,8 +5446,14 @@
       <c r="K102">
         <v>2.7524582275087299E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>3.54828569946984E-2</v>
+      </c>
+      <c r="M102">
+        <v>8.9240155548230907E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -4872,8 +5490,14 @@
       <c r="K103">
         <v>2.5905378776206502E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>3.3339381210791497E-2</v>
+      </c>
+      <c r="M103">
+        <v>8.49814798105877E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -4910,8 +5534,14 @@
       <c r="K104">
         <v>1.75801375154807E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>2.8661045547340801E-2</v>
+      </c>
+      <c r="M104">
+        <v>6.4776982983443601E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -4948,8 +5578,14 @@
       <c r="K105">
         <v>1.89641821197057E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>2.8743885133800402E-2</v>
+      </c>
+      <c r="M105">
+        <v>6.7519622006340903E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4986,8 +5622,14 @@
       <c r="K106">
         <v>1.65285372358029E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>2.99012106987964E-2</v>
+      </c>
+      <c r="M106">
+        <v>5.4266757521490199E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5024,8 +5666,14 @@
       <c r="K107">
         <v>1.3817106298537199E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>2.60428159030466E-2</v>
+      </c>
+      <c r="M107">
+        <v>6.2490201153130899E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -5062,8 +5710,14 @@
       <c r="K108">
         <v>2.23599729905157E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>3.5130273590420799E-2</v>
+      </c>
+      <c r="M108">
+        <v>7.72243343557157E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -5100,8 +5754,14 @@
       <c r="K109">
         <v>2.38651521818574E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>3.5769852748161197E-2</v>
+      </c>
+      <c r="M109">
+        <v>8.3937893912190698E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -5138,8 +5798,14 @@
       <c r="K110">
         <v>2.6200634849442598E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>3.3782610376235103E-2</v>
+      </c>
+      <c r="M110">
+        <v>7.9944875906187395E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -5176,8 +5842,14 @@
       <c r="K111">
         <v>2.6223649302711699E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>3.4982283913107003E-2</v>
+      </c>
+      <c r="M111">
+        <v>8.1164814078730305E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -5214,8 +5886,14 @@
       <c r="K112">
         <v>2.36562535943589E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>3.4845971724736101E-2</v>
+      </c>
+      <c r="M112">
+        <v>8.1101962815039296E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -5252,8 +5930,14 @@
       <c r="K113">
         <v>1.7583739976820599E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>2.8774234398431402E-2</v>
+      </c>
+      <c r="M113">
+        <v>6.9821857177816398E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -5290,8 +5974,14 @@
       <c r="K114">
         <v>2.1680377933031999E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>3.3824695972597803E-2</v>
+      </c>
+      <c r="M114">
+        <v>8.2670858997872295E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -5328,8 +6018,14 @@
       <c r="K115">
         <v>1.7436866310001999E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>2.7262327495110199E-2</v>
+      </c>
+      <c r="M115">
+        <v>6.0285061309382501E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -5366,8 +6062,14 @@
       <c r="K116">
         <v>2.3649848265379801E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>3.3185983137452801E-2</v>
+      </c>
+      <c r="M116">
+        <v>7.3044518391520499E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -5404,8 +6106,14 @@
       <c r="K117">
         <v>2.7521925425754499E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>3.3640364139289398E-2</v>
+      </c>
+      <c r="M117">
+        <v>8.2221451451985495E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -5442,8 +6150,14 @@
       <c r="K118">
         <v>2.3176926316110301E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>3.2507261823641498E-2</v>
+      </c>
+      <c r="M118">
+        <v>6.9212937627117204E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -5480,8 +6194,14 @@
       <c r="K119">
         <v>2.6583133928241198E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>3.8478598242308398E-2</v>
+      </c>
+      <c r="M119">
+        <v>1.05709167174971E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -5518,8 +6238,14 @@
       <c r="K120">
         <v>2.91038535586804E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>3.6915111617383603E-2</v>
+      </c>
+      <c r="M120">
+        <v>1.12613861580386E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -5556,8 +6282,14 @@
       <c r="K121">
         <v>1.6333485041133799E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>2.8588810338575299E-2</v>
+      </c>
+      <c r="M121">
+        <v>5.2667692066990001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -5594,8 +6326,14 @@
       <c r="K122">
         <v>1.1520584936853301E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>2.5553936878511999E-2</v>
+      </c>
+      <c r="M122">
+        <v>5.2280091339347501E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -5632,8 +6370,14 @@
       <c r="K123">
         <v>2.9222469758202999E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>3.5437162877555897E-2</v>
+      </c>
+      <c r="M123">
+        <v>1.09402223908653E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -5670,8 +6414,14 @@
       <c r="K124">
         <v>2.0047612890418702E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>3.1564738059720099E-2</v>
+      </c>
+      <c r="M124">
+        <v>6.2384549139398501E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -5708,8 +6458,14 @@
       <c r="K125">
         <v>3.52388931384755E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>3.3153262394410903E-2</v>
+      </c>
+      <c r="M125">
+        <v>9.8227395934595493E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -5746,8 +6502,14 @@
       <c r="K126">
         <v>2.17055161661488E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>3.7145777713616997E-2</v>
+      </c>
+      <c r="M126">
+        <v>8.8720614402111805E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -5784,8 +6546,14 @@
       <c r="K127">
         <v>2.5312317376415699E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>3.7665839747317E-2</v>
+      </c>
+      <c r="M127">
+        <v>9.5260431809676901E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5822,8 +6590,14 @@
       <c r="K128">
         <v>4.0669978062649404E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>4.2586291150179402E-2</v>
+      </c>
+      <c r="M128">
+        <v>1.19353957522672E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -5860,8 +6634,14 @@
       <c r="K129">
         <v>2.9121999200374601E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>3.9695847709189797E-2</v>
+      </c>
+      <c r="M129">
+        <v>1.02000156358112E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -5898,8 +6678,14 @@
       <c r="K130">
         <v>1.61825797164784E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>3.0341447375166E-2</v>
+      </c>
+      <c r="M130">
+        <v>6.8603038803077996E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -5936,8 +6722,14 @@
       <c r="K131">
         <v>5.53895919772568E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>4.0253422774438399E-2</v>
+      </c>
+      <c r="M131">
+        <v>1.4598654292125699E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -5974,8 +6766,14 @@
       <c r="K132">
         <v>5.2874066207456404E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>4.0943635040340397E-2</v>
+      </c>
+      <c r="M132">
+        <v>1.39807558038716E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6012,8 +6810,14 @@
       <c r="K133">
         <v>5.0333721571194099E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>3.7931089665537703E-2</v>
+      </c>
+      <c r="M133">
+        <v>1.39885037765143E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -6050,8 +6854,14 @@
       <c r="K134">
         <v>5.2099871422946198E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>4.9260780154097399E-2</v>
+      </c>
+      <c r="M134">
+        <v>1.82387020375008E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -6088,8 +6898,14 @@
       <c r="K135">
         <v>4.9186469384726803E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>4.8353756337092997E-2</v>
+      </c>
+      <c r="M135">
+        <v>1.7327482697513601E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6126,8 +6942,14 @@
       <c r="K136">
         <v>4.7794397411544997E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>4.5575213742406202E-2</v>
+      </c>
+      <c r="M136">
+        <v>1.65237161682181E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -6164,8 +6986,14 @@
       <c r="K137">
         <v>6.3605602620288304E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>5.2466800898783701E-2</v>
+      </c>
+      <c r="M137">
+        <v>2.0650132599920198E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -6202,8 +7030,14 @@
       <c r="K138">
         <v>2.7206011012123402E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>3.6102929913419603E-2</v>
+      </c>
+      <c r="M138">
+        <v>9.6970194850892998E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6240,8 +7074,14 @@
       <c r="K139">
         <v>2.03001075895021E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>2.9547456709924001E-2</v>
+      </c>
+      <c r="M139">
+        <v>7.4568448404734302E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -6278,8 +7118,14 @@
       <c r="K140">
         <v>4.6887851221545998E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>4.0465235478028001E-2</v>
+      </c>
+      <c r="M140">
+        <v>1.40341191162254E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -6316,8 +7162,14 @@
       <c r="K141">
         <v>4.5572913396745096E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>4.1862867656919898E-2</v>
+      </c>
+      <c r="M141">
+        <v>1.5664474110533198E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -6354,8 +7206,14 @@
       <c r="K142">
         <v>4.5874031917162604E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>4.4777482052587601E-2</v>
+      </c>
+      <c r="M142">
+        <v>1.52325524023231E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -6392,8 +7250,14 @@
       <c r="K143">
         <v>4.2366899338641502E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>4.3148770331021803E-2</v>
+      </c>
+      <c r="M143">
+        <v>1.4166716430653099E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -6430,8 +7294,14 @@
       <c r="K144">
         <v>4.4067645829504497E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>4.2807662103137502E-2</v>
+      </c>
+      <c r="M144">
+        <v>1.47733623732949E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -6468,8 +7338,14 @@
       <c r="K145">
         <v>3.5803999828298398E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>3.7489324747111502E-2</v>
+      </c>
+      <c r="M145">
+        <v>1.1739645819578299E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -6506,8 +7382,14 @@
       <c r="K146">
         <v>2.14824235863948E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>3.3592774833807397E-2</v>
+      </c>
+      <c r="M146">
+        <v>8.0662636031163405E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -6544,8 +7426,14 @@
       <c r="K147">
         <v>2.3664665125553799E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>2.2651684140328299E-2</v>
+      </c>
+      <c r="M147">
+        <v>7.0679903360454203E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -6582,8 +7470,14 @@
       <c r="K148">
         <v>4.0759888256797598E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>3.6518393296612398E-2</v>
+      </c>
+      <c r="M148">
+        <v>1.1520382948812E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>178</v>
       </c>
@@ -6620,8 +7514,14 @@
       <c r="K149">
         <v>2.3179829018212298E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>3.23301988759081E-2</v>
+      </c>
+      <c r="M149">
+        <v>7.98711492557104E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -6658,8 +7558,14 @@
       <c r="K150">
         <v>2.7084811618199702E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>3.5973173016671599E-2</v>
+      </c>
+      <c r="M150">
+        <v>9.9012503723037194E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -6696,8 +7602,14 @@
       <c r="K151">
         <v>3.99878327981717E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>4.0793548906474797E-2</v>
+      </c>
+      <c r="M151">
+        <v>1.3448895938685E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -6734,8 +7646,14 @@
       <c r="K152">
         <v>2.4888048947511901E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>3.11155907835362E-2</v>
+      </c>
+      <c r="M152">
+        <v>7.8343306649127607E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -6772,8 +7690,14 @@
       <c r="K153">
         <v>3.85412676216216E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>3.5894951019381602E-2</v>
+      </c>
+      <c r="M153">
+        <v>1.10635147216706E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -6810,8 +7734,14 @@
       <c r="K154">
         <v>2.5075288145543499E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>3.0231887017841599E-2</v>
+      </c>
+      <c r="M154">
+        <v>7.7555969253345902E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -6848,8 +7778,14 @@
       <c r="K155">
         <v>3.5675173059498901E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>3.7331858297558397E-2</v>
+      </c>
+      <c r="M155">
+        <v>1.19058825252348E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -6886,8 +7822,14 @@
       <c r="K156">
         <v>3.1892894715110998E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>3.2369837663803497E-2</v>
+      </c>
+      <c r="M156">
+        <v>1.00800702361761E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -6924,8 +7866,14 @@
       <c r="K157">
         <v>6.1893499915593904E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>5.12765418952668E-2</v>
+      </c>
+      <c r="M157">
+        <v>1.9760212494082201E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -6962,8 +7910,14 @@
       <c r="K158">
         <v>2.7894865915564998E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>3.3005921012850097E-2</v>
+      </c>
+      <c r="M158">
+        <v>9.2533348505823496E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -7000,8 +7954,14 @@
       <c r="K159">
         <v>4.53943894545711E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>3.9464306774498498E-2</v>
+      </c>
+      <c r="M159">
+        <v>1.4411892410494599E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -7038,8 +7998,14 @@
       <c r="K160">
         <v>5.3804504207225004E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>4.4232529161969701E-2</v>
+      </c>
+      <c r="M160">
+        <v>1.6398058230224499E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -7076,8 +8042,14 @@
       <c r="K161">
         <v>3.06685550557161E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>3.2804327992051498E-2</v>
+      </c>
+      <c r="M161">
+        <v>9.5259455638531595E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -7114,8 +8086,14 @@
       <c r="K162">
         <v>4.18696041473439E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>4.1121587248154401E-2</v>
+      </c>
+      <c r="M162">
+        <v>1.3596225162397699E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -7152,8 +8130,14 @@
       <c r="K163">
         <v>3.4506554486583001E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>3.5292451126234699E-2</v>
+      </c>
+      <c r="M163">
+        <v>1.13514623631013E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -7190,8 +8174,14 @@
       <c r="K164">
         <v>3.9337602879716098E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>3.5317916499603599E-2</v>
+      </c>
+      <c r="M164">
+        <v>1.1711558875188099E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -7228,8 +8218,14 @@
       <c r="K165">
         <v>4.3741945390988798E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>3.8406685823549801E-2</v>
+      </c>
+      <c r="M165">
+        <v>1.3283871923889501E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>142</v>
       </c>
@@ -7266,8 +8262,14 @@
       <c r="K166">
         <v>3.71699389882781E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>3.2982127376997197E-2</v>
+      </c>
+      <c r="M166">
+        <v>1.20324401670524E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>143</v>
       </c>
@@ -7304,8 +8306,14 @@
       <c r="K167">
         <v>1.6525406154387801E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>2.80258454026991E-2</v>
+      </c>
+      <c r="M167">
+        <v>6.7335099041055798E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -7342,8 +8350,14 @@
       <c r="K168">
         <v>5.1899015621618503E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>4.0735096220979303E-2</v>
+      </c>
+      <c r="M168">
+        <v>1.31857154386408E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -7380,8 +8394,14 @@
       <c r="K169">
         <v>2.62570822674243E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>3.8936051032613099E-2</v>
+      </c>
+      <c r="M169">
+        <v>8.4327036613489198E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -7418,8 +8438,14 @@
       <c r="K170">
         <v>2.6413255777415099E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>3.9491596532109097E-2</v>
+      </c>
+      <c r="M170">
+        <v>8.8349023173879392E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -7456,8 +8482,14 @@
       <c r="K171">
         <v>2.1584915418803698E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>3.2680618392519699E-2</v>
+      </c>
+      <c r="M171">
+        <v>6.1817277984886404E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -7494,8 +8526,14 @@
       <c r="K172">
         <v>1.66276071575348E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>3.2309973472867799E-2</v>
+      </c>
+      <c r="M172">
+        <v>6.1323703861595504E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -7532,8 +8570,14 @@
       <c r="K173">
         <v>2.7427745048437999E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>3.8997539913207202E-2</v>
+      </c>
+      <c r="M173">
+        <v>8.8719468181259198E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -7570,8 +8614,14 @@
       <c r="K174">
         <v>2.3869923648715198E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>3.8886410481556402E-2</v>
+      </c>
+      <c r="M174">
+        <v>9.4091990213327498E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -7608,8 +8658,14 @@
       <c r="K175">
         <v>3.1622220039792398E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>3.6753164063223001E-2</v>
+      </c>
+      <c r="M175">
+        <v>9.2628101843995492E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -7646,8 +8702,14 @@
       <c r="K176">
         <v>2.4209048773299398E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>3.8846271252384601E-2</v>
+      </c>
+      <c r="M176">
+        <v>9.2322860145774201E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -7684,8 +8746,14 @@
       <c r="K177">
         <v>1.5521375614600901E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>2.9775079237966601E-2</v>
+      </c>
+      <c r="M177">
+        <v>5.7477622862456799E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -7722,8 +8790,14 @@
       <c r="K178">
         <v>2.3727296215051599E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>4.2119029169070801E-2</v>
+      </c>
+      <c r="M178">
+        <v>1.39919263526817E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>25</v>
       </c>
@@ -7760,8 +8834,14 @@
       <c r="K179">
         <v>1.6359213454685999E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>2.8806487064957701E-2</v>
+      </c>
+      <c r="M179">
+        <v>5.4215437067842102E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -7798,8 +8878,14 @@
       <c r="K180">
         <v>2.1219737227122499E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>4.0810800594331502E-2</v>
+      </c>
+      <c r="M180">
+        <v>1.2507861200772101E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -7835,6 +8921,12 @@
       </c>
       <c r="K181">
         <v>2.54443819722904E-3</v>
+      </c>
+      <c r="L181">
+        <v>3.6420763067647403E-2</v>
+      </c>
+      <c r="M181">
+        <v>7.4310540377019096E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
+++ b/Figure Generating/data/DNA_Biofilm_Trans_Defense_Coverage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D095AA-A7FF-405E-BD2D-5457D0AC1D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BCC74D-7CF6-4A7C-988A-033AB261EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>TARA_X000000368</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>DNA_sect_pep</t>
+  </si>
+  <si>
+    <t>DNA_signalT</t>
   </si>
 </sst>
 </file>
@@ -949,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -966,9 +969,10 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -1008,8 +1012,11 @@
       <c r="M1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1052,8 +1059,11 @@
       <c r="M2">
         <v>8.3316657947394099E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>5.8686497290821099E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1096,8 +1106,11 @@
       <c r="M3">
         <v>8.9464381510720205E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>6.5247396175026002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="M4">
         <v>1.0161982549717801E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>6.1889593107119596E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1200,11 @@
       <c r="M5">
         <v>4.07066236722416E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>4.0375454876834197E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1228,8 +1247,11 @@
       <c r="M6">
         <v>7.6395393154068403E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>5.8683545338087803E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1272,8 +1294,11 @@
       <c r="M7">
         <v>7.0503647795832399E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>5.5543562730389802E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1316,8 +1341,11 @@
       <c r="M8">
         <v>4.71794941396971E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>4.4558050711273403E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1360,8 +1388,11 @@
       <c r="M9">
         <v>1.1863482705294401E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>7.0862959745188504E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1404,8 +1435,11 @@
       <c r="M10">
         <v>8.9132156380819592E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>7.0234620500838497E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1448,8 +1482,11 @@
       <c r="M11">
         <v>7.7387081043315499E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.6122825388370502E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1492,8 +1529,11 @@
       <c r="M12">
         <v>7.8670666006048495E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>5.44710912484198E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1536,8 +1576,11 @@
       <c r="M13">
         <v>6.5399039937055698E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>4.90131937108581E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="M14">
         <v>8.6882387340151603E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.82823437906216E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1624,8 +1670,11 @@
       <c r="M15">
         <v>8.7915765806195392E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.6531241245622596E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1668,8 +1717,11 @@
       <c r="M16">
         <v>5.62977602469035E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>4.6638471332410896E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1712,8 +1764,11 @@
       <c r="M17">
         <v>5.1658595473017604E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>4.8135830060452196E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1756,8 +1811,11 @@
       <c r="M18">
         <v>6.1266955701898898E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.0463261244195002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1800,8 +1858,11 @@
       <c r="M19">
         <v>4.9387261221818099E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>4.3568291743839097E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1844,8 +1905,11 @@
       <c r="M20">
         <v>6.3845509539485297E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.7396118292221496E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1888,8 +1952,11 @@
       <c r="M21">
         <v>6.2543950155829397E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>4.7555843653051301E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1932,8 +1999,11 @@
       <c r="M22">
         <v>6.1384882361630397E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>5.2648350318964497E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1976,8 +2046,11 @@
       <c r="M23">
         <v>5.9243859739518999E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>4.9522899328132003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="M24">
         <v>4.3165348522356001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>4.5454636758346396E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2064,8 +2140,11 @@
       <c r="M25">
         <v>4.7917131072330102E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>4.8194943606363E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2108,8 +2187,11 @@
       <c r="M26">
         <v>6.0511584784876697E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>4.7707490673348099E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2152,8 +2234,11 @@
       <c r="M27">
         <v>4.9451015046818002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>4.6264279534250401E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2196,8 +2281,11 @@
       <c r="M28">
         <v>6.8458598250570497E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>4.7652484826518201E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2240,8 +2328,11 @@
       <c r="M29">
         <v>6.2598929847232504E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>4.5021406148391396E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2284,8 +2375,11 @@
       <c r="M30">
         <v>5.4750877401099299E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>5.0122180061445802E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2328,8 +2422,11 @@
       <c r="M31">
         <v>4.3465749319269702E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>4.6371694547187002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2372,8 +2469,11 @@
       <c r="M32">
         <v>6.3119318926649296E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>4.7345892471812199E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2416,8 +2516,11 @@
       <c r="M33">
         <v>1.5555316589937701E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>6.7499265552458804E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2460,8 +2563,11 @@
       <c r="M34">
         <v>1.04419415935627E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34">
+        <v>5.9840587570232301E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2504,8 +2610,11 @@
       <c r="M35">
         <v>6.6774787097068104E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>4.9189327587182098E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2548,8 +2657,11 @@
       <c r="M36">
         <v>6.3047809094146099E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>5.0687357416768402E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2592,8 +2704,11 @@
       <c r="M37">
         <v>6.3141709139210699E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>4.9206937451567899E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2636,8 +2751,11 @@
       <c r="M38">
         <v>3.5195232485872099E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>3.50962267566744E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2680,8 +2798,11 @@
       <c r="M39">
         <v>7.03479020745576E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>4.7758536467672396E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2724,8 +2845,11 @@
       <c r="M40">
         <v>1.2473746440413901E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>1.04790374870139E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2768,8 +2892,11 @@
       <c r="M41">
         <v>4.37609649340786E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>3.60390961174204E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2812,8 +2939,11 @@
       <c r="M42">
         <v>6.5272575138982797E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>5.3559512524374003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2856,8 +2986,11 @@
       <c r="M43">
         <v>6.1776161216754999E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43">
+        <v>5.3945031249962496E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2900,8 +3033,11 @@
       <c r="M44">
         <v>6.2910285928486197E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>5.3273479758954899E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2944,8 +3080,11 @@
       <c r="M45">
         <v>6.8383826447054501E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>5.2908668715889303E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2988,8 +3127,11 @@
       <c r="M46">
         <v>6.38954000284697E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>5.3293405750064601E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3032,8 +3174,11 @@
       <c r="M47">
         <v>3.0665442025675999E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>2.9779401811483399E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3076,8 +3221,11 @@
       <c r="M48">
         <v>4.6163597861979301E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>4.0468590093434998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3120,8 +3268,11 @@
       <c r="M49">
         <v>4.1314424134086397E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>4.2034293246881399E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3315,11 @@
       <c r="M50">
         <v>5.8690046088717297E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>4.8824136044258301E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -3208,8 +3362,11 @@
       <c r="M51">
         <v>8.1393425725092595E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>4.8735068612317401E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -3252,8 +3409,11 @@
       <c r="M52">
         <v>7.7256792874708302E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>4.8801529825145398E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -3296,8 +3456,11 @@
       <c r="M53">
         <v>7.5502597619708E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53">
+        <v>5.4814561368136004E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3340,8 +3503,11 @@
       <c r="M54">
         <v>9.6844326430508398E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>5.7925988851515297E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -3384,8 +3550,11 @@
       <c r="M55">
         <v>9.4744513388875899E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>6.2380237824433199E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -3428,8 +3597,11 @@
       <c r="M56">
         <v>9.1698474937302096E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>5.8959186024363499E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -3472,8 +3644,11 @@
       <c r="M57">
         <v>9.9481730043812708E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>6.6113651372423999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -3516,8 +3691,11 @@
       <c r="M58">
         <v>8.3014119167995008E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>5.6883938767210099E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -3560,8 +3738,11 @@
       <c r="M59">
         <v>7.9534159555262902E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59">
+        <v>5.4795389414244401E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -3604,8 +3785,11 @@
       <c r="M60">
         <v>7.7262607697775997E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>5.9210708758919203E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -3648,8 +3832,11 @@
       <c r="M61">
         <v>9.2137205279519806E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61">
+        <v>6.3279037637538702E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3692,8 +3879,11 @@
       <c r="M62">
         <v>4.5717760884355198E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>4.7159478306086104E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3736,8 +3926,11 @@
       <c r="M63">
         <v>5.6204617452887996E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>5.7907428726309898E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3780,8 +3973,11 @@
       <c r="M64">
         <v>1.15313739044997E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>6.0933217125805697E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3824,8 +4020,11 @@
       <c r="M65">
         <v>1.06631082392396E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>5.6571187602825904E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3868,8 +4067,11 @@
       <c r="M66">
         <v>9.4932282950734095E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>5.5047921418989098E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3912,8 +4114,11 @@
       <c r="M67">
         <v>1.15643587700973E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>5.96828629897528E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3956,8 +4161,11 @@
       <c r="M68">
         <v>8.7580355274833894E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>6.0684969433241302E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4000,8 +4208,11 @@
       <c r="M69">
         <v>7.1377456463740802E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>5.5430453643603899E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -4044,8 +4255,11 @@
       <c r="M70">
         <v>5.690381320548E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>4.4877550131676098E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4088,8 +4302,11 @@
       <c r="M71">
         <v>7.7993521248993902E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>4.8434627402586502E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -4132,8 +4349,11 @@
       <c r="M72">
         <v>6.2870650660376099E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>4.7833429156054E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4176,8 +4396,11 @@
       <c r="M73">
         <v>8.4433694045829392E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>5.1432422936094702E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4220,8 +4443,11 @@
       <c r="M74">
         <v>7.72936931676051E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74">
+        <v>4.8832427792869296E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4264,8 +4490,11 @@
       <c r="M75">
         <v>8.8810103066433391E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75">
+        <v>6.6203880451030598E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -4308,8 +4537,11 @@
       <c r="M76">
         <v>5.0416144563517999E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76">
+        <v>4.1447901190364402E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -4352,8 +4584,11 @@
       <c r="M77">
         <v>6.0274657987651201E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77">
+        <v>3.9598779987404997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -4396,8 +4631,11 @@
       <c r="M78">
         <v>9.8310990853929595E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>5.6735820959889997E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4440,8 +4678,11 @@
       <c r="M79">
         <v>8.0297448847907894E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>6.0306357335942603E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4484,8 +4725,11 @@
       <c r="M80">
         <v>1.0543374555236599E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>7.7015007847062002E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4528,8 +4772,11 @@
       <c r="M81">
         <v>1.0928790470282701E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>5.5964371896928397E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4572,8 +4819,11 @@
       <c r="M82">
         <v>9.2059805304147008E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82">
+        <v>6.1765923587730398E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -4616,8 +4866,11 @@
       <c r="M83">
         <v>6.2231129180221499E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83">
+        <v>5.18051363690089E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -4660,8 +4913,11 @@
       <c r="M84">
         <v>5.4385227612507303E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84">
+        <v>4.4034573204818498E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4960,11 @@
       <c r="M85">
         <v>5.04918426137163E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85">
+        <v>4.3296250773705303E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -4748,8 +5007,11 @@
       <c r="M86">
         <v>5.7148754998064301E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86">
+        <v>4.1932595709570199E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -4792,8 +5054,11 @@
       <c r="M87">
         <v>8.7894288386736602E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87">
+        <v>6.6894766341223898E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -4836,8 +5101,11 @@
       <c r="M88">
         <v>1.47702920729193E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88">
+        <v>9.1834797143614307E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -4880,8 +5148,11 @@
       <c r="M89">
         <v>1.10533080385079E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89">
+        <v>7.91302618931072E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4924,8 +5195,11 @@
       <c r="M90">
         <v>7.93242884639077E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>5.4020021734076601E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -4968,8 +5242,11 @@
       <c r="M91">
         <v>7.3728334303028199E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>5.6199702310432897E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -5012,8 +5289,11 @@
       <c r="M92">
         <v>6.2935431595858302E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>5.1334819768190402E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -5056,8 +5336,11 @@
       <c r="M93">
         <v>6.6194841726207702E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>5.5188295505985098E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -5100,8 +5383,11 @@
       <c r="M94">
         <v>8.7542524887552504E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>5.2489870438594899E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -5144,8 +5430,11 @@
       <c r="M95">
         <v>9.2661777797429599E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95">
+        <v>5.1811448735446996E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -5188,8 +5477,11 @@
       <c r="M96">
         <v>9.4499788481472499E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96">
+        <v>5.1313000503584501E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -5232,8 +5524,11 @@
       <c r="M97">
         <v>9.6080612304736603E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97">
+        <v>6.1718219041139799E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -5276,8 +5571,11 @@
       <c r="M98">
         <v>8.7376318644580894E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98">
+        <v>6.2702559385553304E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -5320,8 +5618,11 @@
       <c r="M99">
         <v>7.8134526607806093E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99">
+        <v>5.5044211022944201E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -5364,8 +5665,11 @@
       <c r="M100">
         <v>7.6834950778595099E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100">
+        <v>5.1077684507848603E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -5408,8 +5712,11 @@
       <c r="M101">
         <v>5.7939299953876297E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101">
+        <v>4.3047288282126502E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -5452,8 +5759,11 @@
       <c r="M102">
         <v>8.9240155548230907E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102">
+        <v>5.2171550189740396E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -5496,8 +5806,11 @@
       <c r="M103">
         <v>8.49814798105877E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103">
+        <v>4.9545830829506501E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -5540,8 +5853,11 @@
       <c r="M104">
         <v>6.4776982983443601E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104">
+        <v>4.9668721678332002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -5584,8 +5900,11 @@
       <c r="M105">
         <v>6.7519622006340903E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105">
+        <v>5.28437940578496E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -5628,8 +5947,11 @@
       <c r="M106">
         <v>5.4266757521490199E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106">
+        <v>4.7173710957929896E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -5672,8 +5994,11 @@
       <c r="M107">
         <v>6.2490201153130899E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107">
+        <v>4.3519016094204499E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -5716,8 +6041,11 @@
       <c r="M108">
         <v>7.72243343557157E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108">
+        <v>4.9651620923604096E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -5760,8 +6088,11 @@
       <c r="M109">
         <v>8.3937893912190698E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109">
+        <v>6.0474578107820197E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -5804,8 +6135,11 @@
       <c r="M110">
         <v>7.9944875906187395E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110">
+        <v>5.5884272724012404E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -5848,8 +6182,11 @@
       <c r="M111">
         <v>8.1164814078730305E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111">
+        <v>5.3219197770584597E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -5892,8 +6229,11 @@
       <c r="M112">
         <v>8.1101962815039296E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112">
+        <v>5.4778048996118297E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -5936,8 +6276,11 @@
       <c r="M113">
         <v>6.9821857177816398E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113">
+        <v>4.575754735285E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -5980,8 +6323,11 @@
       <c r="M114">
         <v>8.2670858997872295E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114">
+        <v>5.41279468445239E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -6024,8 +6370,11 @@
       <c r="M115">
         <v>6.0285061309382501E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115">
+        <v>4.5179811324916504E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -6068,8 +6417,11 @@
       <c r="M116">
         <v>7.3044518391520499E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116">
+        <v>5.2761859457162901E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -6112,8 +6464,11 @@
       <c r="M117">
         <v>8.2221451451985495E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117">
+        <v>5.8700919259497501E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -6156,8 +6511,11 @@
       <c r="M118">
         <v>6.9212937627117204E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118">
+        <v>5.4978816775261702E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -6200,8 +6558,11 @@
       <c r="M119">
         <v>1.05709167174971E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119">
+        <v>7.3643397231340901E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -6244,8 +6605,11 @@
       <c r="M120">
         <v>1.12613861580386E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120">
+        <v>6.9354962927951798E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -6288,8 +6652,11 @@
       <c r="M121">
         <v>5.2667692066990001E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121">
+        <v>4.6162406428137404E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -6332,8 +6699,11 @@
       <c r="M122">
         <v>5.2280091339347501E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122">
+        <v>4.1934039844760598E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -6376,8 +6746,11 @@
       <c r="M123">
         <v>1.09402223908653E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123">
+        <v>7.1991975172209796E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -6420,8 +6793,11 @@
       <c r="M124">
         <v>6.2384549139398501E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124">
+        <v>5.1713075274066496E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -6464,8 +6840,11 @@
       <c r="M125">
         <v>9.8227395934595493E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125">
+        <v>6.4888552045550196E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -6508,8 +6887,11 @@
       <c r="M126">
         <v>8.8720614402111805E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126">
+        <v>5.8834503022734304E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -6552,8 +6934,11 @@
       <c r="M127">
         <v>9.5260431809676901E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127">
+        <v>5.4103442934665697E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -6596,8 +6981,11 @@
       <c r="M128">
         <v>1.19353957522672E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128">
+        <v>7.4419963849527001E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -6640,8 +7028,11 @@
       <c r="M129">
         <v>1.02000156358112E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129">
+        <v>6.8597447654549799E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -6684,8 +7075,11 @@
       <c r="M130">
         <v>6.8603038803077996E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130">
+        <v>4.7311921087566699E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -6728,8 +7122,11 @@
       <c r="M131">
         <v>1.4598654292125699E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131">
+        <v>5.7357635954959603E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -6772,8 +7169,11 @@
       <c r="M132">
         <v>1.39807558038716E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132">
+        <v>6.4973366500079297E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6816,8 +7216,11 @@
       <c r="M133">
         <v>1.39885037765143E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133">
+        <v>6.4949602730435202E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -6860,8 +7263,11 @@
       <c r="M134">
         <v>1.82387020375008E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134">
+        <v>8.7991099556625502E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -6904,8 +7310,11 @@
       <c r="M135">
         <v>1.7327482697513601E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135">
+        <v>8.6931165978623298E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6948,8 +7357,11 @@
       <c r="M136">
         <v>1.65237161682181E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136">
+        <v>7.5630994486839999E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -6992,8 +7404,11 @@
       <c r="M137">
         <v>2.0650132599920198E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137">
+        <v>8.1575485272959904E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -7036,8 +7451,11 @@
       <c r="M138">
         <v>9.6970194850892998E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138">
+        <v>5.8706954328253801E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -7080,8 +7498,11 @@
       <c r="M139">
         <v>7.4568448404734302E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139">
+        <v>5.7397931018499304E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -7124,8 +7545,11 @@
       <c r="M140">
         <v>1.40341191162254E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140">
+        <v>8.8723984284054796E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -7168,8 +7592,11 @@
       <c r="M141">
         <v>1.5664474110533198E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141">
+        <v>8.2922716413182194E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -7212,8 +7639,11 @@
       <c r="M142">
         <v>1.52325524023231E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142">
+        <v>8.2614944600900402E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -7256,8 +7686,11 @@
       <c r="M143">
         <v>1.4166716430653099E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143">
+        <v>8.0582478784094295E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -7300,8 +7733,11 @@
       <c r="M144">
         <v>1.47733623732949E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144">
+        <v>7.2690727959744102E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -7344,8 +7780,11 @@
       <c r="M145">
         <v>1.1739645819578299E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145">
+        <v>7.5204831106132197E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -7388,8 +7827,11 @@
       <c r="M146">
         <v>8.0662636031163405E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146">
+        <v>5.3460703828973897E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -7432,8 +7874,11 @@
       <c r="M147">
         <v>7.0679903360454203E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147">
+        <v>4.6166214609631596E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -7476,8 +7921,11 @@
       <c r="M148">
         <v>1.1520382948812E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148">
+        <v>6.5847777011896801E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>178</v>
       </c>
@@ -7520,8 +7968,11 @@
       <c r="M149">
         <v>7.98711492557104E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149">
+        <v>5.33399367179714E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -7564,8 +8015,11 @@
       <c r="M150">
         <v>9.9012503723037194E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150">
+        <v>5.5615366316921497E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -7608,8 +8062,11 @@
       <c r="M151">
         <v>1.3448895938685E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151">
+        <v>6.2229570552980399E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -7652,8 +8109,11 @@
       <c r="M152">
         <v>7.8343306649127607E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152">
+        <v>5.51656622385011E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -7696,8 +8156,11 @@
       <c r="M153">
         <v>1.10635147216706E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153">
+        <v>5.8452207740521704E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -7740,8 +8203,11 @@
       <c r="M154">
         <v>7.7555969253345902E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154">
+        <v>5.3042978423376496E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -7784,8 +8250,11 @@
       <c r="M155">
         <v>1.19058825252348E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155">
+        <v>7.4079352896689304E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -7828,8 +8297,11 @@
       <c r="M156">
         <v>1.00800702361761E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156">
+        <v>5.7296595522674E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -7872,8 +8344,11 @@
       <c r="M157">
         <v>1.9760212494082201E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157">
+        <v>8.3530128686127095E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -7916,8 +8391,11 @@
       <c r="M158">
         <v>9.2533348505823496E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158">
+        <v>5.68484565646002E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -7960,8 +8438,11 @@
       <c r="M159">
         <v>1.4411892410494599E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159">
+        <v>7.6838477656675898E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -8004,8 +8485,11 @@
       <c r="M160">
         <v>1.6398058230224499E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160">
+        <v>8.0849404337299292E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -8048,8 +8532,11 @@
       <c r="M161">
         <v>9.5259455638531595E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161">
+        <v>5.7418373916251399E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -8092,8 +8579,11 @@
       <c r="M162">
         <v>1.3596225162397699E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162">
+        <v>7.4919671980602396E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -8136,8 +8626,11 @@
       <c r="M163">
         <v>1.13514623631013E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163">
+        <v>6.9375972417308604E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -8180,8 +8673,11 @@
       <c r="M164">
         <v>1.1711558875188099E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164">
+        <v>7.1558927675426298E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -8224,8 +8720,11 @@
       <c r="M165">
         <v>1.3283871923889501E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165">
+        <v>6.5962514234033497E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>142</v>
       </c>
@@ -8268,8 +8767,11 @@
       <c r="M166">
         <v>1.20324401670524E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166">
+        <v>5.5671045164149497E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>143</v>
       </c>
@@ -8312,8 +8814,11 @@
       <c r="M167">
         <v>6.7335099041055798E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167">
+        <v>4.8354087900303799E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -8356,8 +8861,11 @@
       <c r="M168">
         <v>1.31857154386408E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168">
+        <v>8.5625096818672496E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -8400,8 +8908,11 @@
       <c r="M169">
         <v>8.4327036613489198E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169">
+        <v>6.7451158129874598E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -8444,8 +8955,11 @@
       <c r="M170">
         <v>8.8349023173879392E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170">
+        <v>6.3449561172940101E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -8488,8 +9002,11 @@
       <c r="M171">
         <v>6.1817277984886404E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171">
+        <v>6.8794879368680598E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -8532,8 +9049,11 @@
       <c r="M172">
         <v>6.1323703861595504E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172">
+        <v>5.5650723011766096E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -8576,8 +9096,11 @@
       <c r="M173">
         <v>8.8719468181259198E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173">
+        <v>5.7223180467187301E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -8620,8 +9143,11 @@
       <c r="M174">
         <v>9.4091990213327498E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174">
+        <v>5.6652648468026199E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -8664,8 +9190,11 @@
       <c r="M175">
         <v>9.2628101843995492E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175">
+        <v>6.0613604987839404E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -8708,8 +9237,11 @@
       <c r="M176">
         <v>9.2322860145774201E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176">
+        <v>6.1760840181313802E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -8752,8 +9284,11 @@
       <c r="M177">
         <v>5.7477622862456799E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177">
+        <v>5.1538149987572198E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -8796,8 +9331,11 @@
       <c r="M178">
         <v>1.39919263526817E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178">
+        <v>7.1611810119902803E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>25</v>
       </c>
@@ -8840,8 +9378,11 @@
       <c r="M179">
         <v>5.4215437067842102E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179">
+        <v>4.8193780875054699E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -8884,8 +9425,11 @@
       <c r="M180">
         <v>1.2507861200772101E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180">
+        <v>7.2525068407246198E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -8927,6 +9471,9 @@
       </c>
       <c r="M181">
         <v>7.4310540377019096E-3</v>
+      </c>
+      <c r="N181">
+        <v>5.7279450655087797E-3</v>
       </c>
     </row>
   </sheetData>
